--- a/data/transects_slope_elev_curv_mikey/slope/slope_all.xlsx
+++ b/data/transects_slope_elev_curv_mikey/slope/slope_all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Documents\HS_project\data\transects_slope_elev_curv_mikey\slope\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3858E38-FD14-43FB-833F-F24A67C972DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E9A205-62FE-41B6-86D2-64A020A770D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="figs" sheetId="9" r:id="rId1"/>
@@ -226,15 +226,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:v>3.4</c:v>
+            <c:v>3.2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -244,974 +244,2773 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>'LC3.4'!$D$2:$D$160</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="159"/>
+            <c:strRef>
+              <c:f>'LC3.2'!$D:$D</c:f>
+              <c:strCache>
+                <c:ptCount val="459"/>
                 <c:pt idx="0">
+                  <c:v>distance</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>19</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>20</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>21</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>23</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>24</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>27</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>29</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>30</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>33</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>37</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>38</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>40</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>42</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>45</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>48</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>49</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>52</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>53</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>54</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>55</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>59</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="60">
+                <c:pt idx="61">
                   <c:v>61</c:v>
                 </c:pt>
-                <c:pt idx="61">
+                <c:pt idx="62">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="62">
+                <c:pt idx="63">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="63">
+                <c:pt idx="64">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="64">
+                <c:pt idx="65">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="65">
+                <c:pt idx="66">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="66">
+                <c:pt idx="67">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="68">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="69">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="70">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="71">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="71">
+                <c:pt idx="72">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="72">
+                <c:pt idx="73">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="73">
+                <c:pt idx="74">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="74">
+                <c:pt idx="75">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="75">
+                <c:pt idx="76">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="76">
+                <c:pt idx="77">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="77">
+                <c:pt idx="78">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="78">
+                <c:pt idx="79">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="79">
+                <c:pt idx="80">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="80">
+                <c:pt idx="81">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="81">
+                <c:pt idx="82">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="82">
+                <c:pt idx="83">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="83">
+                <c:pt idx="84">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="84">
+                <c:pt idx="85">
                   <c:v>85</c:v>
                 </c:pt>
-                <c:pt idx="85">
+                <c:pt idx="86">
                   <c:v>86</c:v>
                 </c:pt>
-                <c:pt idx="86">
+                <c:pt idx="87">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="87">
+                <c:pt idx="88">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="88">
+                <c:pt idx="89">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="89">
+                <c:pt idx="90">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="90">
+                <c:pt idx="91">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="91">
+                <c:pt idx="92">
                   <c:v>92</c:v>
                 </c:pt>
-                <c:pt idx="92">
+                <c:pt idx="93">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="93">
+                <c:pt idx="94">
                   <c:v>94</c:v>
                 </c:pt>
-                <c:pt idx="94">
+                <c:pt idx="95">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="95">
+                <c:pt idx="96">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="96">
+                <c:pt idx="97">
                   <c:v>97</c:v>
                 </c:pt>
-                <c:pt idx="97">
+                <c:pt idx="98">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="98">
+                <c:pt idx="99">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="99">
+                <c:pt idx="100">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="100">
+                <c:pt idx="101">
                   <c:v>101</c:v>
                 </c:pt>
-                <c:pt idx="101">
+                <c:pt idx="102">
                   <c:v>102</c:v>
                 </c:pt>
-                <c:pt idx="102">
+                <c:pt idx="103">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="103">
+                <c:pt idx="104">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="104">
+                <c:pt idx="105">
                   <c:v>105</c:v>
                 </c:pt>
-                <c:pt idx="105">
+                <c:pt idx="106">
                   <c:v>106</c:v>
                 </c:pt>
-                <c:pt idx="106">
+                <c:pt idx="107">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="107">
+                <c:pt idx="108">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="108">
+                <c:pt idx="109">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="109">
+                <c:pt idx="110">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="110">
+                <c:pt idx="111">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="111">
+                <c:pt idx="112">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="112">
+                <c:pt idx="113">
                   <c:v>113</c:v>
                 </c:pt>
-                <c:pt idx="113">
+                <c:pt idx="114">
                   <c:v>114</c:v>
                 </c:pt>
-                <c:pt idx="114">
+                <c:pt idx="115">
                   <c:v>115</c:v>
                 </c:pt>
-                <c:pt idx="115">
+                <c:pt idx="116">
                   <c:v>116</c:v>
                 </c:pt>
-                <c:pt idx="116">
+                <c:pt idx="117">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="117">
+                <c:pt idx="118">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="118">
+                <c:pt idx="119">
                   <c:v>119</c:v>
                 </c:pt>
-                <c:pt idx="119">
+                <c:pt idx="120">
                   <c:v>120</c:v>
                 </c:pt>
-                <c:pt idx="120">
+                <c:pt idx="121">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="121">
+                <c:pt idx="122">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="122">
+                <c:pt idx="123">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="123">
+                <c:pt idx="124">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="124">
+                <c:pt idx="125">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="125">
+                <c:pt idx="126">
                   <c:v>126</c:v>
                 </c:pt>
-                <c:pt idx="126">
+                <c:pt idx="127">
                   <c:v>127</c:v>
                 </c:pt>
-                <c:pt idx="127">
+                <c:pt idx="128">
                   <c:v>128</c:v>
                 </c:pt>
-                <c:pt idx="128">
+                <c:pt idx="129">
                   <c:v>129</c:v>
                 </c:pt>
-                <c:pt idx="129">
+                <c:pt idx="130">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="130">
+                <c:pt idx="131">
                   <c:v>131</c:v>
                 </c:pt>
-                <c:pt idx="131">
+                <c:pt idx="132">
                   <c:v>132</c:v>
                 </c:pt>
-                <c:pt idx="132">
+                <c:pt idx="133">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="133">
+                <c:pt idx="134">
                   <c:v>134</c:v>
                 </c:pt>
-                <c:pt idx="134">
+                <c:pt idx="135">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="135">
+                <c:pt idx="136">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="136">
+                <c:pt idx="137">
                   <c:v>137</c:v>
                 </c:pt>
-                <c:pt idx="137">
+                <c:pt idx="138">
                   <c:v>138</c:v>
                 </c:pt>
-                <c:pt idx="138">
+                <c:pt idx="139">
                   <c:v>139</c:v>
                 </c:pt>
-                <c:pt idx="139">
+                <c:pt idx="140">
                   <c:v>140</c:v>
                 </c:pt>
-                <c:pt idx="140">
+                <c:pt idx="141">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="141">
+                <c:pt idx="142">
                   <c:v>142</c:v>
                 </c:pt>
-                <c:pt idx="142">
+                <c:pt idx="143">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="143">
+                <c:pt idx="144">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="144">
+                <c:pt idx="145">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="145">
+                <c:pt idx="146">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="146">
+                <c:pt idx="147">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="147">
+                <c:pt idx="148">
                   <c:v>148</c:v>
                 </c:pt>
-                <c:pt idx="148">
+                <c:pt idx="149">
                   <c:v>149</c:v>
                 </c:pt>
-                <c:pt idx="149">
+                <c:pt idx="150">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="150">
+                <c:pt idx="151">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="151">
+                <c:pt idx="152">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="152">
+                <c:pt idx="153">
                   <c:v>153</c:v>
                 </c:pt>
-                <c:pt idx="153">
+                <c:pt idx="154">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="154">
+                <c:pt idx="155">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="155">
+                <c:pt idx="156">
                   <c:v>156</c:v>
                 </c:pt>
-                <c:pt idx="156">
+                <c:pt idx="157">
                   <c:v>157</c:v>
                 </c:pt>
-                <c:pt idx="157">
+                <c:pt idx="158">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="158">
+                <c:pt idx="159">
                   <c:v>159</c:v>
                 </c:pt>
-              </c:numCache>
+                <c:pt idx="160">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>173</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>181</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>188</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>194</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>196</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>197</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>201</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>202</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>203</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>207</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>211</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>212</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>213</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>217</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>220</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>221</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>223</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>224</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>226</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>227</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>229</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>231</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>233</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>234</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>235</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>236</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>239</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>313</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>314</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>317</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>319</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>321</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>323</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>329</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>330</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>331</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>335</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>337</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>341</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>342</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>343</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>347</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>349</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>351</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>353</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>354</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>355</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>362</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>363</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>365</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>367</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>371</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>375</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>377</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>379</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>383</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>385</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>387</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>389</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>393</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>395</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>397</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>399</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>401</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>402</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>403</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>406</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>411</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>412</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>414</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>415</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>418</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>419</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>421</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>422</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>424</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>425</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>427</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>428</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>429</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>430</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>431</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>436</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>437</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>439</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>440</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>444</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>446</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>447</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>448</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>450</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>451</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>452</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>453</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>455</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>456</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>457</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>458</c:v>
+                </c:pt>
+              </c:strCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
-            </c:numRef>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LC3.4'!$E$2:$E$160</c:f>
+              <c:f>'LC3.2'!$E:$E</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="159"/>
+                <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>25.947773817872548</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>28.739237762019933</c:v>
+                  <c:v>4.8377713808482605</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30.562756331979692</c:v>
+                  <c:v>4.4839291092819682</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31.544589251732013</c:v>
+                  <c:v>5.4785923201645463</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31.417325491214186</c:v>
+                  <c:v>3.8813655147519359</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31.005702873464298</c:v>
+                  <c:v>2.934801054467572</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>33.895214981291133</c:v>
+                  <c:v>5.4751660088887641</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.269778569982364</c:v>
+                  <c:v>8.0325286979023502</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42.819236203258768</c:v>
+                  <c:v>9.5423374816127051</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38.850833269935599</c:v>
+                  <c:v>12.044184133788036</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33.002956911317639</c:v>
+                  <c:v>16.227790269865856</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29.256976456863349</c:v>
+                  <c:v>21.511581199249441</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.656566088515575</c:v>
+                  <c:v>26.030347967440122</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.890881178666785</c:v>
+                  <c:v>28.421390920462883</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>25.674788156132482</c:v>
+                  <c:v>30.068942006275797</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>27.074426263681588</c:v>
+                  <c:v>31.971486419235404</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28.50305832204225</c:v>
+                  <c:v>33.36826433138372</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.571354305838558</c:v>
+                  <c:v>33.42333095170072</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29.285304585682159</c:v>
+                  <c:v>32.167326966449302</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.870071923161955</c:v>
+                  <c:v>30.672515055126997</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>25.770685697020575</c:v>
+                  <c:v>30.728714954342813</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>25.654938045629983</c:v>
+                  <c:v>34.138472202258612</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>24.028213456186716</c:v>
+                  <c:v>39.672491852134712</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>22.916717984031472</c:v>
+                  <c:v>41.961710209528327</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>22.658247633484319</c:v>
+                  <c:v>38.679022364167544</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>22.518130044776605</c:v>
+                  <c:v>34.493466820333374</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>22.466701915261652</c:v>
+                  <c:v>32.135872431000479</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>23.391306282254025</c:v>
+                  <c:v>30.00815606740634</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>25.245398618306488</c:v>
+                  <c:v>28.219332704284504</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27.115911189687935</c:v>
+                  <c:v>28.457911031919217</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28.045351291475093</c:v>
+                  <c:v>29.573577053189776</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>27.36627367921129</c:v>
+                  <c:v>28.297584196762052</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>25.121277034327647</c:v>
+                  <c:v>26.45846510281293</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>23.002972522496751</c:v>
+                  <c:v>26.819652009972781</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>23.06324917968464</c:v>
+                  <c:v>27.231539905384007</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>25.723954753417502</c:v>
+                  <c:v>29.825600185446234</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>28.66941151275482</c:v>
+                  <c:v>32.325136457512983</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>31.950343259871456</c:v>
+                  <c:v>30.016841603341259</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>32.07431185357099</c:v>
+                  <c:v>25.500079775140904</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>28.590578819444737</c:v>
+                  <c:v>22.932504815440261</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>24.859459215500845</c:v>
+                  <c:v>23.249590024412299</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>24.565366220101602</c:v>
+                  <c:v>25.098858124344616</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>25.266164048212762</c:v>
+                  <c:v>27.230521267346411</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>25.78661189587352</c:v>
+                  <c:v>30.778019172003201</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>26.049554613700217</c:v>
+                  <c:v>36.626626100570476</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>28.061214717183162</c:v>
+                  <c:v>41.478602421975921</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>25.19242425663975</c:v>
+                  <c:v>41.703692661135086</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>21.848561150860188</c:v>
+                  <c:v>36.99533917486422</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>22.076602216579836</c:v>
+                  <c:v>31.163127614387065</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>24.870972673286008</c:v>
+                  <c:v>28.871603585649254</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>24.87822086468644</c:v>
+                  <c:v>30.04216392422169</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>23.487230053662373</c:v>
+                  <c:v>30.909877239552063</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>22.360470141973821</c:v>
+                  <c:v>29.000625341959157</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>21.453045157906619</c:v>
+                  <c:v>26.606871796166111</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>21.857791986169232</c:v>
+                  <c:v>26.602304362671802</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>22.500975380976918</c:v>
+                  <c:v>29.460880774651464</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>22.182315238357312</c:v>
+                  <c:v>36.072695573793197</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>21.991210635716637</c:v>
+                  <c:v>43.979586999173492</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>22.210443464866202</c:v>
+                  <c:v>45.289419408115876</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>22.169816356000631</c:v>
+                  <c:v>37.320867042435253</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>22.935669458130363</c:v>
+                  <c:v>23.656201906858744</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>26.187715002715027</c:v>
+                  <c:v>12.684931841443861</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>26.427079402578666</c:v>
+                  <c:v>9.2730486270352763</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>21.946593523618887</c:v>
+                  <c:v>8.917301955271558</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>18.319047482667465</c:v>
+                  <c:v>8.9079005026575064</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>18.997489316496569</c:v>
+                  <c:v>9.6681548283736429</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>19.935143149114104</c:v>
+                  <c:v>10.455685837150636</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>19.123435831430612</c:v>
+                  <c:v>11.565775387671547</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>17.984802899160762</c:v>
+                  <c:v>12.995733542543022</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>16.589791347775698</c:v>
+                  <c:v>13.326188651401626</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>15.007687054931672</c:v>
+                  <c:v>12.202459840247256</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>15.444399760055605</c:v>
+                  <c:v>11.394883776231868</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>15.714239246083817</c:v>
+                  <c:v>11.167355063735663</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>14.879973641634809</c:v>
+                  <c:v>10.765838521067067</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>13.974957164010444</c:v>
+                  <c:v>9.9097341865200193</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>15.446609968028557</c:v>
+                  <c:v>8.2997150162027502</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>17.878681802148378</c:v>
+                  <c:v>6.8457706342175273</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>17.636498504090252</c:v>
+                  <c:v>5.4749878109881305</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>15.895447019872664</c:v>
+                  <c:v>4.3548633785959714</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>15.461367990385575</c:v>
+                  <c:v>4.6826872007769333</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>15.186903703224601</c:v>
+                  <c:v>5.7651028813578122</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>14.661698975862381</c:v>
+                  <c:v>7.8099869370670394</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>14.432614513619004</c:v>
+                  <c:v>9.5935504057106726</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>14.915673860823423</c:v>
+                  <c:v>9.9619607976349585</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>15.761768923081524</c:v>
+                  <c:v>9.5208081828198363</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>16.485081352398204</c:v>
+                  <c:v>9.1545890075683953</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>17.19866220247739</c:v>
+                  <c:v>9.0286174102111989</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>18.500167595553744</c:v>
+                  <c:v>9.1731104605439135</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>19.260030849026272</c:v>
+                  <c:v>9.5099813839941127</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>18.971880117317347</c:v>
+                  <c:v>9.5582391474157689</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>18.584067883762689</c:v>
+                  <c:v>9.4330314103068318</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>18.906151875559452</c:v>
+                  <c:v>9.6285062765601701</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>18.844171738178634</c:v>
+                  <c:v>10.73734082869966</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>17.300698810970633</c:v>
+                  <c:v>12.594188473484053</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>16.491163291503625</c:v>
+                  <c:v>14.439237973298026</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>16.678190910667329</c:v>
+                  <c:v>15.656434823743959</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>17.179070833983985</c:v>
+                  <c:v>14.120165422169004</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>17.33137399766035</c:v>
+                  <c:v>12.285293656995911</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>16.364962502222575</c:v>
+                  <c:v>9.6932878826269206</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>15.613023184999001</c:v>
+                  <c:v>7.5253242450852218</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>14.940143818447027</c:v>
+                  <c:v>6.6258091130255075</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>14.820540345347968</c:v>
+                  <c:v>7.3676030962608694</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>14.2819268570156</c:v>
+                  <c:v>8.8501669134224592</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>13.43182247963254</c:v>
+                  <c:v>9.9495688785484742</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>12.682501018521556</c:v>
+                  <c:v>11.867990678417371</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>12.244175469628479</c:v>
+                  <c:v>13.455091345653326</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>11.773741443727427</c:v>
+                  <c:v>12.085886804143264</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>11.234939950119877</c:v>
+                  <c:v>9.6637394851811447</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>10.918755428776437</c:v>
+                  <c:v>9.7121309218620091</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>11.180425014288211</c:v>
+                  <c:v>10.605084283106379</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>11.183436346705328</c:v>
+                  <c:v>11.253334223758484</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>10.980424415441306</c:v>
+                  <c:v>10.762767056958445</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>10.996220346350594</c:v>
+                  <c:v>9.736226196849918</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>11.00385567750774</c:v>
+                  <c:v>9.0167954997673423</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>10.17249415677118</c:v>
+                  <c:v>8.8043850427315355</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>9.4914480606260909</c:v>
+                  <c:v>8.6982904321147121</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>9.3567278836814953</c:v>
+                  <c:v>7.8058464665941187</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>9.4608380104016945</c:v>
+                  <c:v>6.3709970455702614</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>9.1227759199281913</c:v>
+                  <c:v>5.2156073943461916</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>8.2141059079073138</c:v>
+                  <c:v>5.2647531678211319</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>7.2496755011733853</c:v>
+                  <c:v>6.2754004820885818</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>6.9713428739254724</c:v>
+                  <c:v>8.2428883177221355</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>7.165768854914969</c:v>
+                  <c:v>10.050342462896211</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>8.048345461218597</c:v>
+                  <c:v>11.142009885894105</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>7.8862655183131078</c:v>
+                  <c:v>11.873707300217344</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>6.6706707617943817</c:v>
+                  <c:v>12.748911450539037</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>6.2296765706715771</c:v>
+                  <c:v>13.248468299247145</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>5.3928200088078757</c:v>
+                  <c:v>10.896464368522286</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>4.2353943849099194</c:v>
+                  <c:v>8.3625205230406543</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>3.2954074072219313</c:v>
+                  <c:v>7.6118841283658751</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>2.6954101209234382</c:v>
+                  <c:v>9.3081883483012433</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>3.2943725696787487</c:v>
+                  <c:v>10.98020176927316</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>8.0483230544535065</c:v>
+                  <c:v>12.014621247451876</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>12.907026381755426</c:v>
+                  <c:v>12.978132534494218</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>14.292980308868026</c:v>
+                  <c:v>14.176736612059063</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>12.968692044224412</c:v>
+                  <c:v>15.426864950834869</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>11.072524241338185</c:v>
+                  <c:v>15.345774772337254</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>9.1129766936004444</c:v>
+                  <c:v>13.81485524073404</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>7.4475241615400734</c:v>
+                  <c:v>10.740716699062729</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.3136252226771026</c:v>
+                  <c:v>8.2347509359368605</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>5.5334683712989738</c:v>
+                  <c:v>8.8002516976963019</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>4.3546612934035629</c:v>
+                  <c:v>11.704041032436276</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>3.4703373278203911</c:v>
+                  <c:v>13.256912446087998</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3.215916361533008</c:v>
+                  <c:v>13.791534386789067</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>3.075939245594558</c:v>
+                  <c:v>15.15419274121213</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.3252005271183185</c:v>
+                  <c:v>16.462974062575555</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3.8187507729333445</c:v>
+                  <c:v>15.288487573658905</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>4.3067594738420478</c:v>
+                  <c:v>12.562968455069004</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>4.9467575601447464</c:v>
+                  <c:v>10.570093718935928</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>5.4775744142513947</c:v>
+                  <c:v>9.5555454118581213</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>5.6143037371359288</c:v>
+                  <c:v>9.05530946813413</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>4.6850443327047282</c:v>
+                  <c:v>8.8879351317259427</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>4.1619382059054901</c:v>
+                  <c:v>9.2917397853343253</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>4.1637478079868151</c:v>
+                  <c:v>9.7020027812803917</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>3.7179507904591746</c:v>
+                  <c:v>9.4539902916232847</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>3.0379177760298068</c:v>
+                  <c:v>8.9856457473906062</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>2.3100212036256056</c:v>
+                  <c:v>8.4366762465018681</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.4060491001792821</c:v>
+                  <c:v>7.6221713619392117</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>1.1425129447842162</c:v>
+                  <c:v>7.1051004102886433</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>7.374234240821675</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>7.7881491137436658</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>8.1707967767976424</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>9.0121073257586701</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>9.0604673748469384</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>7.9459735888977967</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7.3146812305287936</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7.6176644254955974</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.9088221085765777</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>7.6491918372094334</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.9538367705540338</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.3360243950210071</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>6.7018355753336714</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>7.66011240591875</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>7.5913070696611005</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>7.0058796939895762</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.9788563463868067</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>7.4530933692784105</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.8737847812631188</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>7.6213258541941311</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.9913389938879371</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6.7022398589547407</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.7968513018471652</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>7.0836871970905753</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>7.0527080665318618</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6.6953795057089014</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6.5273932855936501</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.915378900432982</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>7.5603680390215544</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.982736348271593</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5.2077980635405607</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>3.7668629970053451</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>4.5305295861138157</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6.4811214841067644</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>8.2711160268149104</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>9.4777832170986773</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>9.5332691374665046</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>9.0498484885320991</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>8.2597816960833672</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>7.6822397726181091</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>7.8841751593163405</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>8.3368336303875861</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>8.1504526178378267</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>7.3773573941167152</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>7.6894305055528811</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>9.578497987993039</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>11.739411640602746</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>11.89106070004482</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>10.128207976481267</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>9.323426832970334</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>9.5410703466476203</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>9.4841825529347314</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>9.8820132013908992</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>10.575520074881199</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>11.094022153016214</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>10.947090348767299</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>10.154639013375403</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>10.001013916817771</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>10.673823256579336</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>10.885903555850394</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>11.011342549486788</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>11.575273900231743</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>12.342335780035869</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>13.167815805995616</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>13.730297846230142</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>14.29925263868738</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>15.162040350748406</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>16.131231023679426</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>16.450808625664408</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>15.705603033895226</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>14.085986562998981</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>12.753935394119578</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>12.33347604313018</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>12.021741701251385</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>11.1352953954861</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>10.347391704108745</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>11.443638909804639</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>12.939939132716708</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>14.163282498303593</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>13.861018044739904</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>12.387730390840769</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>12.404749071966975</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>12.695885578720082</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>11.469958876976401</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>9.9483286137456108</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>9.8079033240039237</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>10.885859593564142</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>12.488433249253656</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>14.029194360714943</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>14.433767944378314</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>13.634947266017777</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>12.382997299773589</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>12.42014701153818</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>13.633576059429712</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>14.057703393965724</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>13.625081436190584</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>12.425550651899011</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>11.209545431832783</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>11.075532092887311</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>12.254410523258212</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>13.976019182483387</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>15.773490691632734</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>16.931597498783823</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>16.884685648278371</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>15.485744367016899</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>12.867723095246237</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>10.576531834313391</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>9.8417183216983961</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>10.376017177909775</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>10.931589073113726</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>11.912839940393429</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>13.156207543476377</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>13.920115499844453</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>14.375744089528775</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>14.259513972150323</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>14.453323327916902</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>14.812907912283674</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>14.940602139054608</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>14.61683488234485</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>13.801455545289198</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>12.933225547391871</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>12.296173617309156</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>12.399784524334443</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>13.64488966740813</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>16.337602956409814</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>17.814669771105855</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>15.787826864794321</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>14.02781169763958</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>12.98373074225966</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>12.464474613060844</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>12.853022345596898</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>14.120699688429431</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>15.021033109327853</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>15.268808888379381</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>14.511830276667</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>13.559284634325586</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>12.537247784089775</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>11.026151318610435</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>10.034469097392549</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>10.695568958543877</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>13.196650826060683</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>18.59608754833295</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>24.377568824524381</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>24.979440192601473</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>21.531720467717943</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>17.766527203070495</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>15.964688693413187</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>16.020098098157572</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>16.408341414233398</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>17.005274041447873</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>17.813516418275704</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>18.039619772481736</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>17.221372766520535</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>15.963542649082152</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>14.719215622841702</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>13.989879242020315</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>13.755948616255004</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>14.604661675021163</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>16.956894183689027</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>18.706435240423463</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>19.729995746168498</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>19.418615533584564</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>17.767209251566857</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>16.829507482962768</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>17.0588908378779</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>16.845287893936959</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>15.616600142392269</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>14.556270418861674</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>14.344508258130181</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>15.323988321970504</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>16.958685016081265</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>18.4629180537429</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>18.661044869147247</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>16.782757443721181</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>16.289975542217171</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>17.542362311032704</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>16.966083592889532</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>15.45641362900647</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>15.482998427218128</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>16.351253110549859</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>17.742082222603109</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>19.392944402028217</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>19.591033094638192</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>16.978941433750219</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>13.077862221751097</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>10.611319652091286</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>9.7733280277251176</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>8.7885519528831946</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>8.2442090364594858</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>9.73137585505091</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>11.264574958515801</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>13.004872283801085</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>17.891397476590555</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>21.405347657079144</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>18.660338777878543</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>13.848286929407454</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>11.513244926606758</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>11.611172392296284</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>12.033827632123172</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>11.80732866041126</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>12.174559715402481</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>13.372545602633815</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>14.186263808774864</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>14.702280906239956</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>15.134589162990173</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>14.868639743019131</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>14.085885383075038</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>13.19014378715687</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>12.496409299852481</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>13.248050388687378</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>13.393689653444097</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>11.38845428928011</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>10.154164466023619</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>11.78748316513507</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>14.90861644955482</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>16.764995865330761</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>15.813815025731262</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>11.844128948512754</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>7.6281885124516382</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>5.7187433899582274</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>6.1542599913940181</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>7.2782432901417469</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>9.5546164328519509</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>11.664349738132485</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>12.791625048453295</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>13.710702457215866</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>14.849439019064908</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>15.619861653821204</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>16.365507268497762</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>16.624968319314064</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>15.642401070888193</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>14.443982654465504</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>15.000442583029557</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>14.662827402225895</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>10.759144381160251</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>8.0671340671757878</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>9.5581910478679664</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>11.452077735480607</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>10.4405826054698</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>8.1011644864184102</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>7.2971693328566509</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>8.7584377235073418</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>10.462183720190415</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>9.9076148180354835</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>8.1314203410167334</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>6.8149396339075574</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>6.0950855158530901</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>5.8505948214961645</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>5.9879635568581691</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>5.8112113735352215</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>5.4346283521370147</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>5.7923430290661546</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>6.3844490390305602</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>6.7612602458835998</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>7.0844801299858986</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>7.3738776515289794</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>8.0937480863433162</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>8.9117153149342165</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>8.8278426020443757</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>7.8032288768427174</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>6.8507472678002772</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>5.7735464031398385</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>4.7095307061011216</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>3.7592335421960703</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>2.0736347599660627</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>1.9633767234938413</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>3.6342599673446454</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>4.491625796194767</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>4.3127690034028454</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>3.2991860566449862</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>2.7756963222092512</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>3.2494292753299812</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>3.7762385554440567</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>3.8126868122514099</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>3.6550751375642667</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>3.7847352378680927</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>4.18373535614485</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>4.4787818325976927</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>4.3733895848489448</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>3.7934940392401568</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>3.162413149768649</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>2.7075569684353389</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>2.1398834836355927</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>1.6689403636966222</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>1.3019907482657516</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>1.4746602510201472</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>2.3353529204189565</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>3.1906632549589831</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>3.3136352953338344</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>2.9272121159036799</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>2.4412940202637161</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>2.0181021111008564</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>1.7561692962624864</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>1.7004788424048196</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>1.8197322269430254</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>1.9067038922266133</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>2.0034076670971226</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>1.9953944015078211</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>1.9360481630613695</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>1.7847111962501472</c:v>
                 </c:pt>
               </c:numCache>
               <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
@@ -1220,7 +3019,7 @@
           <c:smooth val="0"/>
           <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-BBCF-467D-9912-CD0EB615D6A8}"/>
+              <c16:uniqueId val="{00000004-BBCF-467D-9912-CD0EB615D6A8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1236,6 +3035,1017 @@
         <c:axId val="1368314896"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v>3.4</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1"/>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'LC3.4'!$D$2:$D$160</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="159"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>99</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>101</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>103</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>105</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>107</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>109</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>111</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>113</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>115</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>117</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>119</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>121</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>122</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>123</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>125</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>127</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>129</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>131</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>133</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>135</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>137</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>138</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>139</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>141</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>143</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>145</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>146</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>147</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>149</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>151</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>153</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>155</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>157</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>159</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'LC3.4'!$E$2:$E$160</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="159"/>
+                      <c:pt idx="0">
+                        <c:v>25.947773817872548</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>28.739237762019933</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>30.562756331979692</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>31.544589251732013</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>31.417325491214186</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>31.005702873464298</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>33.895214981291133</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>40.269778569982364</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>42.819236203258768</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>38.850833269935599</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>33.002956911317639</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>29.256976456863349</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>27.656566088515575</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>25.890881178666785</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>25.674788156132482</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>27.074426263681588</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>28.50305832204225</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>29.571354305838558</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>29.285304585682159</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>26.870071923161955</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>25.770685697020575</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>25.654938045629983</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>24.028213456186716</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>22.916717984031472</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>22.658247633484319</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>22.518130044776605</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>22.466701915261652</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>23.391306282254025</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>25.245398618306488</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>27.115911189687935</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>28.045351291475093</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>27.36627367921129</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>25.121277034327647</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>23.002972522496751</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>23.06324917968464</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>25.723954753417502</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>28.66941151275482</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>31.950343259871456</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>32.07431185357099</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>28.590578819444737</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>24.859459215500845</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>24.565366220101602</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>25.266164048212762</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>25.78661189587352</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>26.049554613700217</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>28.061214717183162</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>25.19242425663975</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>21.848561150860188</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>22.076602216579836</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>24.870972673286008</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>24.87822086468644</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>23.487230053662373</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>22.360470141973821</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>21.453045157906619</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>21.857791986169232</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>22.500975380976918</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>22.182315238357312</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>21.991210635716637</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>22.210443464866202</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>22.169816356000631</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>22.935669458130363</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>26.187715002715027</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>26.427079402578666</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>21.946593523618887</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>18.319047482667465</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>18.997489316496569</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>19.935143149114104</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>19.123435831430612</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>17.984802899160762</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>16.589791347775698</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>15.007687054931672</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>15.444399760055605</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>15.714239246083817</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>14.879973641634809</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>13.974957164010444</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>15.446609968028557</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>17.878681802148378</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>17.636498504090252</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>15.895447019872664</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>15.461367990385575</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>15.186903703224601</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>14.661698975862381</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>14.432614513619004</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>14.915673860823423</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>15.761768923081524</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>16.485081352398204</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>17.19866220247739</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>18.500167595553744</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>19.260030849026272</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>18.971880117317347</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>18.584067883762689</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>18.906151875559452</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>18.844171738178634</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>17.300698810970633</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>16.491163291503625</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>16.678190910667329</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>17.179070833983985</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>17.33137399766035</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>16.364962502222575</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>15.613023184999001</c:v>
+                      </c:pt>
+                      <c:pt idx="100">
+                        <c:v>14.940143818447027</c:v>
+                      </c:pt>
+                      <c:pt idx="101">
+                        <c:v>14.820540345347968</c:v>
+                      </c:pt>
+                      <c:pt idx="102">
+                        <c:v>14.2819268570156</c:v>
+                      </c:pt>
+                      <c:pt idx="103">
+                        <c:v>13.43182247963254</c:v>
+                      </c:pt>
+                      <c:pt idx="104">
+                        <c:v>12.682501018521556</c:v>
+                      </c:pt>
+                      <c:pt idx="105">
+                        <c:v>12.244175469628479</c:v>
+                      </c:pt>
+                      <c:pt idx="106">
+                        <c:v>11.773741443727427</c:v>
+                      </c:pt>
+                      <c:pt idx="107">
+                        <c:v>11.234939950119877</c:v>
+                      </c:pt>
+                      <c:pt idx="108">
+                        <c:v>10.918755428776437</c:v>
+                      </c:pt>
+                      <c:pt idx="109">
+                        <c:v>11.180425014288211</c:v>
+                      </c:pt>
+                      <c:pt idx="110">
+                        <c:v>11.183436346705328</c:v>
+                      </c:pt>
+                      <c:pt idx="111">
+                        <c:v>10.980424415441306</c:v>
+                      </c:pt>
+                      <c:pt idx="112">
+                        <c:v>10.996220346350594</c:v>
+                      </c:pt>
+                      <c:pt idx="113">
+                        <c:v>11.00385567750774</c:v>
+                      </c:pt>
+                      <c:pt idx="114">
+                        <c:v>10.17249415677118</c:v>
+                      </c:pt>
+                      <c:pt idx="115">
+                        <c:v>9.4914480606260909</c:v>
+                      </c:pt>
+                      <c:pt idx="116">
+                        <c:v>9.3567278836814953</c:v>
+                      </c:pt>
+                      <c:pt idx="117">
+                        <c:v>9.4608380104016945</c:v>
+                      </c:pt>
+                      <c:pt idx="118">
+                        <c:v>9.1227759199281913</c:v>
+                      </c:pt>
+                      <c:pt idx="119">
+                        <c:v>8.2141059079073138</c:v>
+                      </c:pt>
+                      <c:pt idx="120">
+                        <c:v>7.2496755011733853</c:v>
+                      </c:pt>
+                      <c:pt idx="121">
+                        <c:v>6.9713428739254724</c:v>
+                      </c:pt>
+                      <c:pt idx="122">
+                        <c:v>7.165768854914969</c:v>
+                      </c:pt>
+                      <c:pt idx="123">
+                        <c:v>8.048345461218597</c:v>
+                      </c:pt>
+                      <c:pt idx="124">
+                        <c:v>7.8862655183131078</c:v>
+                      </c:pt>
+                      <c:pt idx="125">
+                        <c:v>6.6706707617943817</c:v>
+                      </c:pt>
+                      <c:pt idx="126">
+                        <c:v>6.2296765706715771</c:v>
+                      </c:pt>
+                      <c:pt idx="127">
+                        <c:v>5.3928200088078757</c:v>
+                      </c:pt>
+                      <c:pt idx="128">
+                        <c:v>4.2353943849099194</c:v>
+                      </c:pt>
+                      <c:pt idx="129">
+                        <c:v>3.2954074072219313</c:v>
+                      </c:pt>
+                      <c:pt idx="130">
+                        <c:v>2.6954101209234382</c:v>
+                      </c:pt>
+                      <c:pt idx="131">
+                        <c:v>3.2943725696787487</c:v>
+                      </c:pt>
+                      <c:pt idx="132">
+                        <c:v>8.0483230544535065</c:v>
+                      </c:pt>
+                      <c:pt idx="133">
+                        <c:v>12.907026381755426</c:v>
+                      </c:pt>
+                      <c:pt idx="134">
+                        <c:v>14.292980308868026</c:v>
+                      </c:pt>
+                      <c:pt idx="135">
+                        <c:v>12.968692044224412</c:v>
+                      </c:pt>
+                      <c:pt idx="136">
+                        <c:v>11.072524241338185</c:v>
+                      </c:pt>
+                      <c:pt idx="137">
+                        <c:v>9.1129766936004444</c:v>
+                      </c:pt>
+                      <c:pt idx="138">
+                        <c:v>7.4475241615400734</c:v>
+                      </c:pt>
+                      <c:pt idx="139">
+                        <c:v>6.3136252226771026</c:v>
+                      </c:pt>
+                      <c:pt idx="140">
+                        <c:v>5.5334683712989738</c:v>
+                      </c:pt>
+                      <c:pt idx="141">
+                        <c:v>4.3546612934035629</c:v>
+                      </c:pt>
+                      <c:pt idx="142">
+                        <c:v>3.4703373278203911</c:v>
+                      </c:pt>
+                      <c:pt idx="143">
+                        <c:v>3.215916361533008</c:v>
+                      </c:pt>
+                      <c:pt idx="144">
+                        <c:v>3.075939245594558</c:v>
+                      </c:pt>
+                      <c:pt idx="145">
+                        <c:v>3.3252005271183185</c:v>
+                      </c:pt>
+                      <c:pt idx="146">
+                        <c:v>3.8187507729333445</c:v>
+                      </c:pt>
+                      <c:pt idx="147">
+                        <c:v>4.3067594738420478</c:v>
+                      </c:pt>
+                      <c:pt idx="148">
+                        <c:v>4.9467575601447464</c:v>
+                      </c:pt>
+                      <c:pt idx="149">
+                        <c:v>5.4775744142513947</c:v>
+                      </c:pt>
+                      <c:pt idx="150">
+                        <c:v>5.6143037371359288</c:v>
+                      </c:pt>
+                      <c:pt idx="151">
+                        <c:v>4.6850443327047282</c:v>
+                      </c:pt>
+                      <c:pt idx="152">
+                        <c:v>4.1619382059054901</c:v>
+                      </c:pt>
+                      <c:pt idx="153">
+                        <c:v>4.1637478079868151</c:v>
+                      </c:pt>
+                      <c:pt idx="154">
+                        <c:v>3.7179507904591746</c:v>
+                      </c:pt>
+                      <c:pt idx="155">
+                        <c:v>3.0379177760298068</c:v>
+                      </c:pt>
+                      <c:pt idx="156">
+                        <c:v>2.3100212036256056</c:v>
+                      </c:pt>
+                      <c:pt idx="157">
+                        <c:v>1.4060491001792821</c:v>
+                      </c:pt>
+                      <c:pt idx="158">
+                        <c:v>1.1425129447842162</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-BBCF-467D-9912-CD0EB615D6A8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
                 <c:idx val="1"/>
@@ -1257,8 +4067,8 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'LC3.3'!$D:$D</c15:sqref>
                         </c15:formulaRef>
@@ -2264,8 +5074,8 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'LC3.3'!$I:$I</c15:sqref>
                         </c15:formulaRef>
@@ -3271,2819 +6081,9 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000003-BBCF-467D-9912-CD0EB615D6A8}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="2"/>
-                <c:order val="2"/>
-                <c:tx>
-                  <c:v>3.2</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="19050" cap="rnd">
-                    <a:solidFill>
-                      <a:schemeClr val="accent3"/>
-                    </a:solidFill>
-                    <a:round/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'LC3.2'!$D:$D</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="459"/>
-                      <c:pt idx="0">
-                        <c:v>distance</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>1</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>2</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>3</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>4</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>5</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>6</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>7</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>8</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>9</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>10</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>11</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>12</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>13</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>14</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>15</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>16</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>17</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>18</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>19</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>20</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>21</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>22</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>23</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>24</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>25</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>26</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>27</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>28</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>29</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>30</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>31</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>32</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>33</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>34</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>35</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>36</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>37</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>38</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>39</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>40</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>41</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>42</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>43</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>44</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>45</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>46</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>47</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>48</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>49</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>50</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>51</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>52</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>53</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>54</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>55</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>56</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>57</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>58</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>59</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>60</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>61</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>62</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>63</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>64</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>65</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>66</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>67</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>68</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>69</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>70</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>71</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>72</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>73</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>74</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>75</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>76</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>77</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>78</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>79</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>80</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>81</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>82</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>83</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>84</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>85</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>86</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>87</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>88</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>89</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>90</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>91</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>92</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>93</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>94</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>95</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>96</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>97</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>98</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>99</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>100</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>101</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>102</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>103</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>104</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>105</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>106</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>107</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>108</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>109</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>110</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>111</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>112</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>113</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>114</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>115</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>116</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>117</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>118</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>119</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>120</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>121</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>122</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>123</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>124</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>125</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>126</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>127</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>128</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>129</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>130</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>131</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>132</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>133</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>134</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>135</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>136</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>137</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>138</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>139</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>140</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>141</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>142</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>143</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>144</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>145</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>146</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>147</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>148</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>149</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>150</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>151</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>152</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>153</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>154</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>155</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>156</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>157</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>158</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>159</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>160</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>161</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>162</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>163</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>164</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>165</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>166</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>167</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>168</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>169</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>170</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>171</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>172</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>173</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>174</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>175</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>176</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>177</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>178</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>179</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>180</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>181</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>182</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>183</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>184</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>185</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>186</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>187</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>188</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>189</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>190</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>191</c:v>
-                      </c:pt>
-                      <c:pt idx="192">
-                        <c:v>192</c:v>
-                      </c:pt>
-                      <c:pt idx="193">
-                        <c:v>193</c:v>
-                      </c:pt>
-                      <c:pt idx="194">
-                        <c:v>194</c:v>
-                      </c:pt>
-                      <c:pt idx="195">
-                        <c:v>195</c:v>
-                      </c:pt>
-                      <c:pt idx="196">
-                        <c:v>196</c:v>
-                      </c:pt>
-                      <c:pt idx="197">
-                        <c:v>197</c:v>
-                      </c:pt>
-                      <c:pt idx="198">
-                        <c:v>198</c:v>
-                      </c:pt>
-                      <c:pt idx="199">
-                        <c:v>199</c:v>
-                      </c:pt>
-                      <c:pt idx="200">
-                        <c:v>200</c:v>
-                      </c:pt>
-                      <c:pt idx="201">
-                        <c:v>201</c:v>
-                      </c:pt>
-                      <c:pt idx="202">
-                        <c:v>202</c:v>
-                      </c:pt>
-                      <c:pt idx="203">
-                        <c:v>203</c:v>
-                      </c:pt>
-                      <c:pt idx="204">
-                        <c:v>204</c:v>
-                      </c:pt>
-                      <c:pt idx="205">
-                        <c:v>205</c:v>
-                      </c:pt>
-                      <c:pt idx="206">
-                        <c:v>206</c:v>
-                      </c:pt>
-                      <c:pt idx="207">
-                        <c:v>207</c:v>
-                      </c:pt>
-                      <c:pt idx="208">
-                        <c:v>208</c:v>
-                      </c:pt>
-                      <c:pt idx="209">
-                        <c:v>209</c:v>
-                      </c:pt>
-                      <c:pt idx="210">
-                        <c:v>210</c:v>
-                      </c:pt>
-                      <c:pt idx="211">
-                        <c:v>211</c:v>
-                      </c:pt>
-                      <c:pt idx="212">
-                        <c:v>212</c:v>
-                      </c:pt>
-                      <c:pt idx="213">
-                        <c:v>213</c:v>
-                      </c:pt>
-                      <c:pt idx="214">
-                        <c:v>214</c:v>
-                      </c:pt>
-                      <c:pt idx="215">
-                        <c:v>215</c:v>
-                      </c:pt>
-                      <c:pt idx="216">
-                        <c:v>216</c:v>
-                      </c:pt>
-                      <c:pt idx="217">
-                        <c:v>217</c:v>
-                      </c:pt>
-                      <c:pt idx="218">
-                        <c:v>218</c:v>
-                      </c:pt>
-                      <c:pt idx="219">
-                        <c:v>219</c:v>
-                      </c:pt>
-                      <c:pt idx="220">
-                        <c:v>220</c:v>
-                      </c:pt>
-                      <c:pt idx="221">
-                        <c:v>221</c:v>
-                      </c:pt>
-                      <c:pt idx="222">
-                        <c:v>222</c:v>
-                      </c:pt>
-                      <c:pt idx="223">
-                        <c:v>223</c:v>
-                      </c:pt>
-                      <c:pt idx="224">
-                        <c:v>224</c:v>
-                      </c:pt>
-                      <c:pt idx="225">
-                        <c:v>225</c:v>
-                      </c:pt>
-                      <c:pt idx="226">
-                        <c:v>226</c:v>
-                      </c:pt>
-                      <c:pt idx="227">
-                        <c:v>227</c:v>
-                      </c:pt>
-                      <c:pt idx="228">
-                        <c:v>228</c:v>
-                      </c:pt>
-                      <c:pt idx="229">
-                        <c:v>229</c:v>
-                      </c:pt>
-                      <c:pt idx="230">
-                        <c:v>230</c:v>
-                      </c:pt>
-                      <c:pt idx="231">
-                        <c:v>231</c:v>
-                      </c:pt>
-                      <c:pt idx="232">
-                        <c:v>232</c:v>
-                      </c:pt>
-                      <c:pt idx="233">
-                        <c:v>233</c:v>
-                      </c:pt>
-                      <c:pt idx="234">
-                        <c:v>234</c:v>
-                      </c:pt>
-                      <c:pt idx="235">
-                        <c:v>235</c:v>
-                      </c:pt>
-                      <c:pt idx="236">
-                        <c:v>236</c:v>
-                      </c:pt>
-                      <c:pt idx="237">
-                        <c:v>237</c:v>
-                      </c:pt>
-                      <c:pt idx="238">
-                        <c:v>238</c:v>
-                      </c:pt>
-                      <c:pt idx="239">
-                        <c:v>239</c:v>
-                      </c:pt>
-                      <c:pt idx="240">
-                        <c:v>240</c:v>
-                      </c:pt>
-                      <c:pt idx="241">
-                        <c:v>241</c:v>
-                      </c:pt>
-                      <c:pt idx="242">
-                        <c:v>242</c:v>
-                      </c:pt>
-                      <c:pt idx="243">
-                        <c:v>243</c:v>
-                      </c:pt>
-                      <c:pt idx="244">
-                        <c:v>244</c:v>
-                      </c:pt>
-                      <c:pt idx="245">
-                        <c:v>245</c:v>
-                      </c:pt>
-                      <c:pt idx="246">
-                        <c:v>246</c:v>
-                      </c:pt>
-                      <c:pt idx="247">
-                        <c:v>247</c:v>
-                      </c:pt>
-                      <c:pt idx="248">
-                        <c:v>248</c:v>
-                      </c:pt>
-                      <c:pt idx="249">
-                        <c:v>249</c:v>
-                      </c:pt>
-                      <c:pt idx="250">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="251">
-                        <c:v>251</c:v>
-                      </c:pt>
-                      <c:pt idx="252">
-                        <c:v>252</c:v>
-                      </c:pt>
-                      <c:pt idx="253">
-                        <c:v>253</c:v>
-                      </c:pt>
-                      <c:pt idx="254">
-                        <c:v>254</c:v>
-                      </c:pt>
-                      <c:pt idx="255">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="256">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="257">
-                        <c:v>257</c:v>
-                      </c:pt>
-                      <c:pt idx="258">
-                        <c:v>258</c:v>
-                      </c:pt>
-                      <c:pt idx="259">
-                        <c:v>259</c:v>
-                      </c:pt>
-                      <c:pt idx="260">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="261">
-                        <c:v>261</c:v>
-                      </c:pt>
-                      <c:pt idx="262">
-                        <c:v>262</c:v>
-                      </c:pt>
-                      <c:pt idx="263">
-                        <c:v>263</c:v>
-                      </c:pt>
-                      <c:pt idx="264">
-                        <c:v>264</c:v>
-                      </c:pt>
-                      <c:pt idx="265">
-                        <c:v>265</c:v>
-                      </c:pt>
-                      <c:pt idx="266">
-                        <c:v>266</c:v>
-                      </c:pt>
-                      <c:pt idx="267">
-                        <c:v>267</c:v>
-                      </c:pt>
-                      <c:pt idx="268">
-                        <c:v>268</c:v>
-                      </c:pt>
-                      <c:pt idx="269">
-                        <c:v>269</c:v>
-                      </c:pt>
-                      <c:pt idx="270">
-                        <c:v>270</c:v>
-                      </c:pt>
-                      <c:pt idx="271">
-                        <c:v>271</c:v>
-                      </c:pt>
-                      <c:pt idx="272">
-                        <c:v>272</c:v>
-                      </c:pt>
-                      <c:pt idx="273">
-                        <c:v>273</c:v>
-                      </c:pt>
-                      <c:pt idx="274">
-                        <c:v>274</c:v>
-                      </c:pt>
-                      <c:pt idx="275">
-                        <c:v>275</c:v>
-                      </c:pt>
-                      <c:pt idx="276">
-                        <c:v>276</c:v>
-                      </c:pt>
-                      <c:pt idx="277">
-                        <c:v>277</c:v>
-                      </c:pt>
-                      <c:pt idx="278">
-                        <c:v>278</c:v>
-                      </c:pt>
-                      <c:pt idx="279">
-                        <c:v>279</c:v>
-                      </c:pt>
-                      <c:pt idx="280">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="281">
-                        <c:v>281</c:v>
-                      </c:pt>
-                      <c:pt idx="282">
-                        <c:v>282</c:v>
-                      </c:pt>
-                      <c:pt idx="283">
-                        <c:v>283</c:v>
-                      </c:pt>
-                      <c:pt idx="284">
-                        <c:v>284</c:v>
-                      </c:pt>
-                      <c:pt idx="285">
-                        <c:v>285</c:v>
-                      </c:pt>
-                      <c:pt idx="286">
-                        <c:v>286</c:v>
-                      </c:pt>
-                      <c:pt idx="287">
-                        <c:v>287</c:v>
-                      </c:pt>
-                      <c:pt idx="288">
-                        <c:v>288</c:v>
-                      </c:pt>
-                      <c:pt idx="289">
-                        <c:v>289</c:v>
-                      </c:pt>
-                      <c:pt idx="290">
-                        <c:v>290</c:v>
-                      </c:pt>
-                      <c:pt idx="291">
-                        <c:v>291</c:v>
-                      </c:pt>
-                      <c:pt idx="292">
-                        <c:v>292</c:v>
-                      </c:pt>
-                      <c:pt idx="293">
-                        <c:v>293</c:v>
-                      </c:pt>
-                      <c:pt idx="294">
-                        <c:v>294</c:v>
-                      </c:pt>
-                      <c:pt idx="295">
-                        <c:v>295</c:v>
-                      </c:pt>
-                      <c:pt idx="296">
-                        <c:v>296</c:v>
-                      </c:pt>
-                      <c:pt idx="297">
-                        <c:v>297</c:v>
-                      </c:pt>
-                      <c:pt idx="298">
-                        <c:v>298</c:v>
-                      </c:pt>
-                      <c:pt idx="299">
-                        <c:v>299</c:v>
-                      </c:pt>
-                      <c:pt idx="300">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="301">
-                        <c:v>301</c:v>
-                      </c:pt>
-                      <c:pt idx="302">
-                        <c:v>302</c:v>
-                      </c:pt>
-                      <c:pt idx="303">
-                        <c:v>303</c:v>
-                      </c:pt>
-                      <c:pt idx="304">
-                        <c:v>304</c:v>
-                      </c:pt>
-                      <c:pt idx="305">
-                        <c:v>305</c:v>
-                      </c:pt>
-                      <c:pt idx="306">
-                        <c:v>306</c:v>
-                      </c:pt>
-                      <c:pt idx="307">
-                        <c:v>307</c:v>
-                      </c:pt>
-                      <c:pt idx="308">
-                        <c:v>308</c:v>
-                      </c:pt>
-                      <c:pt idx="309">
-                        <c:v>309</c:v>
-                      </c:pt>
-                      <c:pt idx="310">
-                        <c:v>310</c:v>
-                      </c:pt>
-                      <c:pt idx="311">
-                        <c:v>311</c:v>
-                      </c:pt>
-                      <c:pt idx="312">
-                        <c:v>312</c:v>
-                      </c:pt>
-                      <c:pt idx="313">
-                        <c:v>313</c:v>
-                      </c:pt>
-                      <c:pt idx="314">
-                        <c:v>314</c:v>
-                      </c:pt>
-                      <c:pt idx="315">
-                        <c:v>315</c:v>
-                      </c:pt>
-                      <c:pt idx="316">
-                        <c:v>316</c:v>
-                      </c:pt>
-                      <c:pt idx="317">
-                        <c:v>317</c:v>
-                      </c:pt>
-                      <c:pt idx="318">
-                        <c:v>318</c:v>
-                      </c:pt>
-                      <c:pt idx="319">
-                        <c:v>319</c:v>
-                      </c:pt>
-                      <c:pt idx="320">
-                        <c:v>320</c:v>
-                      </c:pt>
-                      <c:pt idx="321">
-                        <c:v>321</c:v>
-                      </c:pt>
-                      <c:pt idx="322">
-                        <c:v>322</c:v>
-                      </c:pt>
-                      <c:pt idx="323">
-                        <c:v>323</c:v>
-                      </c:pt>
-                      <c:pt idx="324">
-                        <c:v>324</c:v>
-                      </c:pt>
-                      <c:pt idx="325">
-                        <c:v>325</c:v>
-                      </c:pt>
-                      <c:pt idx="326">
-                        <c:v>326</c:v>
-                      </c:pt>
-                      <c:pt idx="327">
-                        <c:v>327</c:v>
-                      </c:pt>
-                      <c:pt idx="328">
-                        <c:v>328</c:v>
-                      </c:pt>
-                      <c:pt idx="329">
-                        <c:v>329</c:v>
-                      </c:pt>
-                      <c:pt idx="330">
-                        <c:v>330</c:v>
-                      </c:pt>
-                      <c:pt idx="331">
-                        <c:v>331</c:v>
-                      </c:pt>
-                      <c:pt idx="332">
-                        <c:v>332</c:v>
-                      </c:pt>
-                      <c:pt idx="333">
-                        <c:v>333</c:v>
-                      </c:pt>
-                      <c:pt idx="334">
-                        <c:v>334</c:v>
-                      </c:pt>
-                      <c:pt idx="335">
-                        <c:v>335</c:v>
-                      </c:pt>
-                      <c:pt idx="336">
-                        <c:v>336</c:v>
-                      </c:pt>
-                      <c:pt idx="337">
-                        <c:v>337</c:v>
-                      </c:pt>
-                      <c:pt idx="338">
-                        <c:v>338</c:v>
-                      </c:pt>
-                      <c:pt idx="339">
-                        <c:v>339</c:v>
-                      </c:pt>
-                      <c:pt idx="340">
-                        <c:v>340</c:v>
-                      </c:pt>
-                      <c:pt idx="341">
-                        <c:v>341</c:v>
-                      </c:pt>
-                      <c:pt idx="342">
-                        <c:v>342</c:v>
-                      </c:pt>
-                      <c:pt idx="343">
-                        <c:v>343</c:v>
-                      </c:pt>
-                      <c:pt idx="344">
-                        <c:v>344</c:v>
-                      </c:pt>
-                      <c:pt idx="345">
-                        <c:v>345</c:v>
-                      </c:pt>
-                      <c:pt idx="346">
-                        <c:v>346</c:v>
-                      </c:pt>
-                      <c:pt idx="347">
-                        <c:v>347</c:v>
-                      </c:pt>
-                      <c:pt idx="348">
-                        <c:v>348</c:v>
-                      </c:pt>
-                      <c:pt idx="349">
-                        <c:v>349</c:v>
-                      </c:pt>
-                      <c:pt idx="350">
-                        <c:v>350</c:v>
-                      </c:pt>
-                      <c:pt idx="351">
-                        <c:v>351</c:v>
-                      </c:pt>
-                      <c:pt idx="352">
-                        <c:v>352</c:v>
-                      </c:pt>
-                      <c:pt idx="353">
-                        <c:v>353</c:v>
-                      </c:pt>
-                      <c:pt idx="354">
-                        <c:v>354</c:v>
-                      </c:pt>
-                      <c:pt idx="355">
-                        <c:v>355</c:v>
-                      </c:pt>
-                      <c:pt idx="356">
-                        <c:v>356</c:v>
-                      </c:pt>
-                      <c:pt idx="357">
-                        <c:v>357</c:v>
-                      </c:pt>
-                      <c:pt idx="358">
-                        <c:v>358</c:v>
-                      </c:pt>
-                      <c:pt idx="359">
-                        <c:v>359</c:v>
-                      </c:pt>
-                      <c:pt idx="360">
-                        <c:v>360</c:v>
-                      </c:pt>
-                      <c:pt idx="361">
-                        <c:v>361</c:v>
-                      </c:pt>
-                      <c:pt idx="362">
-                        <c:v>362</c:v>
-                      </c:pt>
-                      <c:pt idx="363">
-                        <c:v>363</c:v>
-                      </c:pt>
-                      <c:pt idx="364">
-                        <c:v>364</c:v>
-                      </c:pt>
-                      <c:pt idx="365">
-                        <c:v>365</c:v>
-                      </c:pt>
-                      <c:pt idx="366">
-                        <c:v>366</c:v>
-                      </c:pt>
-                      <c:pt idx="367">
-                        <c:v>367</c:v>
-                      </c:pt>
-                      <c:pt idx="368">
-                        <c:v>368</c:v>
-                      </c:pt>
-                      <c:pt idx="369">
-                        <c:v>369</c:v>
-                      </c:pt>
-                      <c:pt idx="370">
-                        <c:v>370</c:v>
-                      </c:pt>
-                      <c:pt idx="371">
-                        <c:v>371</c:v>
-                      </c:pt>
-                      <c:pt idx="372">
-                        <c:v>372</c:v>
-                      </c:pt>
-                      <c:pt idx="373">
-                        <c:v>373</c:v>
-                      </c:pt>
-                      <c:pt idx="374">
-                        <c:v>374</c:v>
-                      </c:pt>
-                      <c:pt idx="375">
-                        <c:v>375</c:v>
-                      </c:pt>
-                      <c:pt idx="376">
-                        <c:v>376</c:v>
-                      </c:pt>
-                      <c:pt idx="377">
-                        <c:v>377</c:v>
-                      </c:pt>
-                      <c:pt idx="378">
-                        <c:v>378</c:v>
-                      </c:pt>
-                      <c:pt idx="379">
-                        <c:v>379</c:v>
-                      </c:pt>
-                      <c:pt idx="380">
-                        <c:v>380</c:v>
-                      </c:pt>
-                      <c:pt idx="381">
-                        <c:v>381</c:v>
-                      </c:pt>
-                      <c:pt idx="382">
-                        <c:v>382</c:v>
-                      </c:pt>
-                      <c:pt idx="383">
-                        <c:v>383</c:v>
-                      </c:pt>
-                      <c:pt idx="384">
-                        <c:v>384</c:v>
-                      </c:pt>
-                      <c:pt idx="385">
-                        <c:v>385</c:v>
-                      </c:pt>
-                      <c:pt idx="386">
-                        <c:v>386</c:v>
-                      </c:pt>
-                      <c:pt idx="387">
-                        <c:v>387</c:v>
-                      </c:pt>
-                      <c:pt idx="388">
-                        <c:v>388</c:v>
-                      </c:pt>
-                      <c:pt idx="389">
-                        <c:v>389</c:v>
-                      </c:pt>
-                      <c:pt idx="390">
-                        <c:v>390</c:v>
-                      </c:pt>
-                      <c:pt idx="391">
-                        <c:v>391</c:v>
-                      </c:pt>
-                      <c:pt idx="392">
-                        <c:v>392</c:v>
-                      </c:pt>
-                      <c:pt idx="393">
-                        <c:v>393</c:v>
-                      </c:pt>
-                      <c:pt idx="394">
-                        <c:v>394</c:v>
-                      </c:pt>
-                      <c:pt idx="395">
-                        <c:v>395</c:v>
-                      </c:pt>
-                      <c:pt idx="396">
-                        <c:v>396</c:v>
-                      </c:pt>
-                      <c:pt idx="397">
-                        <c:v>397</c:v>
-                      </c:pt>
-                      <c:pt idx="398">
-                        <c:v>398</c:v>
-                      </c:pt>
-                      <c:pt idx="399">
-                        <c:v>399</c:v>
-                      </c:pt>
-                      <c:pt idx="400">
-                        <c:v>400</c:v>
-                      </c:pt>
-                      <c:pt idx="401">
-                        <c:v>401</c:v>
-                      </c:pt>
-                      <c:pt idx="402">
-                        <c:v>402</c:v>
-                      </c:pt>
-                      <c:pt idx="403">
-                        <c:v>403</c:v>
-                      </c:pt>
-                      <c:pt idx="404">
-                        <c:v>404</c:v>
-                      </c:pt>
-                      <c:pt idx="405">
-                        <c:v>405</c:v>
-                      </c:pt>
-                      <c:pt idx="406">
-                        <c:v>406</c:v>
-                      </c:pt>
-                      <c:pt idx="407">
-                        <c:v>407</c:v>
-                      </c:pt>
-                      <c:pt idx="408">
-                        <c:v>408</c:v>
-                      </c:pt>
-                      <c:pt idx="409">
-                        <c:v>409</c:v>
-                      </c:pt>
-                      <c:pt idx="410">
-                        <c:v>410</c:v>
-                      </c:pt>
-                      <c:pt idx="411">
-                        <c:v>411</c:v>
-                      </c:pt>
-                      <c:pt idx="412">
-                        <c:v>412</c:v>
-                      </c:pt>
-                      <c:pt idx="413">
-                        <c:v>413</c:v>
-                      </c:pt>
-                      <c:pt idx="414">
-                        <c:v>414</c:v>
-                      </c:pt>
-                      <c:pt idx="415">
-                        <c:v>415</c:v>
-                      </c:pt>
-                      <c:pt idx="416">
-                        <c:v>416</c:v>
-                      </c:pt>
-                      <c:pt idx="417">
-                        <c:v>417</c:v>
-                      </c:pt>
-                      <c:pt idx="418">
-                        <c:v>418</c:v>
-                      </c:pt>
-                      <c:pt idx="419">
-                        <c:v>419</c:v>
-                      </c:pt>
-                      <c:pt idx="420">
-                        <c:v>420</c:v>
-                      </c:pt>
-                      <c:pt idx="421">
-                        <c:v>421</c:v>
-                      </c:pt>
-                      <c:pt idx="422">
-                        <c:v>422</c:v>
-                      </c:pt>
-                      <c:pt idx="423">
-                        <c:v>423</c:v>
-                      </c:pt>
-                      <c:pt idx="424">
-                        <c:v>424</c:v>
-                      </c:pt>
-                      <c:pt idx="425">
-                        <c:v>425</c:v>
-                      </c:pt>
-                      <c:pt idx="426">
-                        <c:v>426</c:v>
-                      </c:pt>
-                      <c:pt idx="427">
-                        <c:v>427</c:v>
-                      </c:pt>
-                      <c:pt idx="428">
-                        <c:v>428</c:v>
-                      </c:pt>
-                      <c:pt idx="429">
-                        <c:v>429</c:v>
-                      </c:pt>
-                      <c:pt idx="430">
-                        <c:v>430</c:v>
-                      </c:pt>
-                      <c:pt idx="431">
-                        <c:v>431</c:v>
-                      </c:pt>
-                      <c:pt idx="432">
-                        <c:v>432</c:v>
-                      </c:pt>
-                      <c:pt idx="433">
-                        <c:v>433</c:v>
-                      </c:pt>
-                      <c:pt idx="434">
-                        <c:v>434</c:v>
-                      </c:pt>
-                      <c:pt idx="435">
-                        <c:v>435</c:v>
-                      </c:pt>
-                      <c:pt idx="436">
-                        <c:v>436</c:v>
-                      </c:pt>
-                      <c:pt idx="437">
-                        <c:v>437</c:v>
-                      </c:pt>
-                      <c:pt idx="438">
-                        <c:v>438</c:v>
-                      </c:pt>
-                      <c:pt idx="439">
-                        <c:v>439</c:v>
-                      </c:pt>
-                      <c:pt idx="440">
-                        <c:v>440</c:v>
-                      </c:pt>
-                      <c:pt idx="441">
-                        <c:v>441</c:v>
-                      </c:pt>
-                      <c:pt idx="442">
-                        <c:v>442</c:v>
-                      </c:pt>
-                      <c:pt idx="443">
-                        <c:v>443</c:v>
-                      </c:pt>
-                      <c:pt idx="444">
-                        <c:v>444</c:v>
-                      </c:pt>
-                      <c:pt idx="445">
-                        <c:v>445</c:v>
-                      </c:pt>
-                      <c:pt idx="446">
-                        <c:v>446</c:v>
-                      </c:pt>
-                      <c:pt idx="447">
-                        <c:v>447</c:v>
-                      </c:pt>
-                      <c:pt idx="448">
-                        <c:v>448</c:v>
-                      </c:pt>
-                      <c:pt idx="449">
-                        <c:v>449</c:v>
-                      </c:pt>
-                      <c:pt idx="450">
-                        <c:v>450</c:v>
-                      </c:pt>
-                      <c:pt idx="451">
-                        <c:v>451</c:v>
-                      </c:pt>
-                      <c:pt idx="452">
-                        <c:v>452</c:v>
-                      </c:pt>
-                      <c:pt idx="453">
-                        <c:v>453</c:v>
-                      </c:pt>
-                      <c:pt idx="454">
-                        <c:v>454</c:v>
-                      </c:pt>
-                      <c:pt idx="455">
-                        <c:v>455</c:v>
-                      </c:pt>
-                      <c:pt idx="456">
-                        <c:v>456</c:v>
-                      </c:pt>
-                      <c:pt idx="457">
-                        <c:v>457</c:v>
-                      </c:pt>
-                      <c:pt idx="458">
-                        <c:v>458</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'LC3.2'!$E:$E</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="1048576"/>
-                      <c:pt idx="0">
-                        <c:v>0</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>4.8377713808482605</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>4.4839291092819682</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>5.4785923201645463</c:v>
-                      </c:pt>
-                      <c:pt idx="4">
-                        <c:v>3.8813655147519359</c:v>
-                      </c:pt>
-                      <c:pt idx="5">
-                        <c:v>2.934801054467572</c:v>
-                      </c:pt>
-                      <c:pt idx="6">
-                        <c:v>5.4751660088887641</c:v>
-                      </c:pt>
-                      <c:pt idx="7">
-                        <c:v>8.0325286979023502</c:v>
-                      </c:pt>
-                      <c:pt idx="8">
-                        <c:v>9.5423374816127051</c:v>
-                      </c:pt>
-                      <c:pt idx="9">
-                        <c:v>12.044184133788036</c:v>
-                      </c:pt>
-                      <c:pt idx="10">
-                        <c:v>16.227790269865856</c:v>
-                      </c:pt>
-                      <c:pt idx="11">
-                        <c:v>21.511581199249441</c:v>
-                      </c:pt>
-                      <c:pt idx="12">
-                        <c:v>26.030347967440122</c:v>
-                      </c:pt>
-                      <c:pt idx="13">
-                        <c:v>28.421390920462883</c:v>
-                      </c:pt>
-                      <c:pt idx="14">
-                        <c:v>30.068942006275797</c:v>
-                      </c:pt>
-                      <c:pt idx="15">
-                        <c:v>31.971486419235404</c:v>
-                      </c:pt>
-                      <c:pt idx="16">
-                        <c:v>33.36826433138372</c:v>
-                      </c:pt>
-                      <c:pt idx="17">
-                        <c:v>33.42333095170072</c:v>
-                      </c:pt>
-                      <c:pt idx="18">
-                        <c:v>32.167326966449302</c:v>
-                      </c:pt>
-                      <c:pt idx="19">
-                        <c:v>30.672515055126997</c:v>
-                      </c:pt>
-                      <c:pt idx="20">
-                        <c:v>30.728714954342813</c:v>
-                      </c:pt>
-                      <c:pt idx="21">
-                        <c:v>34.138472202258612</c:v>
-                      </c:pt>
-                      <c:pt idx="22">
-                        <c:v>39.672491852134712</c:v>
-                      </c:pt>
-                      <c:pt idx="23">
-                        <c:v>41.961710209528327</c:v>
-                      </c:pt>
-                      <c:pt idx="24">
-                        <c:v>38.679022364167544</c:v>
-                      </c:pt>
-                      <c:pt idx="25">
-                        <c:v>34.493466820333374</c:v>
-                      </c:pt>
-                      <c:pt idx="26">
-                        <c:v>32.135872431000479</c:v>
-                      </c:pt>
-                      <c:pt idx="27">
-                        <c:v>30.00815606740634</c:v>
-                      </c:pt>
-                      <c:pt idx="28">
-                        <c:v>28.219332704284504</c:v>
-                      </c:pt>
-                      <c:pt idx="29">
-                        <c:v>28.457911031919217</c:v>
-                      </c:pt>
-                      <c:pt idx="30">
-                        <c:v>29.573577053189776</c:v>
-                      </c:pt>
-                      <c:pt idx="31">
-                        <c:v>28.297584196762052</c:v>
-                      </c:pt>
-                      <c:pt idx="32">
-                        <c:v>26.45846510281293</c:v>
-                      </c:pt>
-                      <c:pt idx="33">
-                        <c:v>26.819652009972781</c:v>
-                      </c:pt>
-                      <c:pt idx="34">
-                        <c:v>27.231539905384007</c:v>
-                      </c:pt>
-                      <c:pt idx="35">
-                        <c:v>29.825600185446234</c:v>
-                      </c:pt>
-                      <c:pt idx="36">
-                        <c:v>32.325136457512983</c:v>
-                      </c:pt>
-                      <c:pt idx="37">
-                        <c:v>30.016841603341259</c:v>
-                      </c:pt>
-                      <c:pt idx="38">
-                        <c:v>25.500079775140904</c:v>
-                      </c:pt>
-                      <c:pt idx="39">
-                        <c:v>22.932504815440261</c:v>
-                      </c:pt>
-                      <c:pt idx="40">
-                        <c:v>23.249590024412299</c:v>
-                      </c:pt>
-                      <c:pt idx="41">
-                        <c:v>25.098858124344616</c:v>
-                      </c:pt>
-                      <c:pt idx="42">
-                        <c:v>27.230521267346411</c:v>
-                      </c:pt>
-                      <c:pt idx="43">
-                        <c:v>30.778019172003201</c:v>
-                      </c:pt>
-                      <c:pt idx="44">
-                        <c:v>36.626626100570476</c:v>
-                      </c:pt>
-                      <c:pt idx="45">
-                        <c:v>41.478602421975921</c:v>
-                      </c:pt>
-                      <c:pt idx="46">
-                        <c:v>41.703692661135086</c:v>
-                      </c:pt>
-                      <c:pt idx="47">
-                        <c:v>36.99533917486422</c:v>
-                      </c:pt>
-                      <c:pt idx="48">
-                        <c:v>31.163127614387065</c:v>
-                      </c:pt>
-                      <c:pt idx="49">
-                        <c:v>28.871603585649254</c:v>
-                      </c:pt>
-                      <c:pt idx="50">
-                        <c:v>30.04216392422169</c:v>
-                      </c:pt>
-                      <c:pt idx="51">
-                        <c:v>30.909877239552063</c:v>
-                      </c:pt>
-                      <c:pt idx="52">
-                        <c:v>29.000625341959157</c:v>
-                      </c:pt>
-                      <c:pt idx="53">
-                        <c:v>26.606871796166111</c:v>
-                      </c:pt>
-                      <c:pt idx="54">
-                        <c:v>26.602304362671802</c:v>
-                      </c:pt>
-                      <c:pt idx="55">
-                        <c:v>29.460880774651464</c:v>
-                      </c:pt>
-                      <c:pt idx="56">
-                        <c:v>36.072695573793197</c:v>
-                      </c:pt>
-                      <c:pt idx="57">
-                        <c:v>43.979586999173492</c:v>
-                      </c:pt>
-                      <c:pt idx="58">
-                        <c:v>45.289419408115876</c:v>
-                      </c:pt>
-                      <c:pt idx="59">
-                        <c:v>37.320867042435253</c:v>
-                      </c:pt>
-                      <c:pt idx="60">
-                        <c:v>23.656201906858744</c:v>
-                      </c:pt>
-                      <c:pt idx="61">
-                        <c:v>12.684931841443861</c:v>
-                      </c:pt>
-                      <c:pt idx="62">
-                        <c:v>9.2730486270352763</c:v>
-                      </c:pt>
-                      <c:pt idx="63">
-                        <c:v>8.917301955271558</c:v>
-                      </c:pt>
-                      <c:pt idx="64">
-                        <c:v>8.9079005026575064</c:v>
-                      </c:pt>
-                      <c:pt idx="65">
-                        <c:v>9.6681548283736429</c:v>
-                      </c:pt>
-                      <c:pt idx="66">
-                        <c:v>10.455685837150636</c:v>
-                      </c:pt>
-                      <c:pt idx="67">
-                        <c:v>11.565775387671547</c:v>
-                      </c:pt>
-                      <c:pt idx="68">
-                        <c:v>12.995733542543022</c:v>
-                      </c:pt>
-                      <c:pt idx="69">
-                        <c:v>13.326188651401626</c:v>
-                      </c:pt>
-                      <c:pt idx="70">
-                        <c:v>12.202459840247256</c:v>
-                      </c:pt>
-                      <c:pt idx="71">
-                        <c:v>11.394883776231868</c:v>
-                      </c:pt>
-                      <c:pt idx="72">
-                        <c:v>11.167355063735663</c:v>
-                      </c:pt>
-                      <c:pt idx="73">
-                        <c:v>10.765838521067067</c:v>
-                      </c:pt>
-                      <c:pt idx="74">
-                        <c:v>9.9097341865200193</c:v>
-                      </c:pt>
-                      <c:pt idx="75">
-                        <c:v>8.2997150162027502</c:v>
-                      </c:pt>
-                      <c:pt idx="76">
-                        <c:v>6.8457706342175273</c:v>
-                      </c:pt>
-                      <c:pt idx="77">
-                        <c:v>5.4749878109881305</c:v>
-                      </c:pt>
-                      <c:pt idx="78">
-                        <c:v>4.3548633785959714</c:v>
-                      </c:pt>
-                      <c:pt idx="79">
-                        <c:v>4.6826872007769333</c:v>
-                      </c:pt>
-                      <c:pt idx="80">
-                        <c:v>5.7651028813578122</c:v>
-                      </c:pt>
-                      <c:pt idx="81">
-                        <c:v>7.8099869370670394</c:v>
-                      </c:pt>
-                      <c:pt idx="82">
-                        <c:v>9.5935504057106726</c:v>
-                      </c:pt>
-                      <c:pt idx="83">
-                        <c:v>9.9619607976349585</c:v>
-                      </c:pt>
-                      <c:pt idx="84">
-                        <c:v>9.5208081828198363</c:v>
-                      </c:pt>
-                      <c:pt idx="85">
-                        <c:v>9.1545890075683953</c:v>
-                      </c:pt>
-                      <c:pt idx="86">
-                        <c:v>9.0286174102111989</c:v>
-                      </c:pt>
-                      <c:pt idx="87">
-                        <c:v>9.1731104605439135</c:v>
-                      </c:pt>
-                      <c:pt idx="88">
-                        <c:v>9.5099813839941127</c:v>
-                      </c:pt>
-                      <c:pt idx="89">
-                        <c:v>9.5582391474157689</c:v>
-                      </c:pt>
-                      <c:pt idx="90">
-                        <c:v>9.4330314103068318</c:v>
-                      </c:pt>
-                      <c:pt idx="91">
-                        <c:v>9.6285062765601701</c:v>
-                      </c:pt>
-                      <c:pt idx="92">
-                        <c:v>10.73734082869966</c:v>
-                      </c:pt>
-                      <c:pt idx="93">
-                        <c:v>12.594188473484053</c:v>
-                      </c:pt>
-                      <c:pt idx="94">
-                        <c:v>14.439237973298026</c:v>
-                      </c:pt>
-                      <c:pt idx="95">
-                        <c:v>15.656434823743959</c:v>
-                      </c:pt>
-                      <c:pt idx="96">
-                        <c:v>14.120165422169004</c:v>
-                      </c:pt>
-                      <c:pt idx="97">
-                        <c:v>12.285293656995911</c:v>
-                      </c:pt>
-                      <c:pt idx="98">
-                        <c:v>9.6932878826269206</c:v>
-                      </c:pt>
-                      <c:pt idx="99">
-                        <c:v>7.5253242450852218</c:v>
-                      </c:pt>
-                      <c:pt idx="100">
-                        <c:v>6.6258091130255075</c:v>
-                      </c:pt>
-                      <c:pt idx="101">
-                        <c:v>7.3676030962608694</c:v>
-                      </c:pt>
-                      <c:pt idx="102">
-                        <c:v>8.8501669134224592</c:v>
-                      </c:pt>
-                      <c:pt idx="103">
-                        <c:v>9.9495688785484742</c:v>
-                      </c:pt>
-                      <c:pt idx="104">
-                        <c:v>11.867990678417371</c:v>
-                      </c:pt>
-                      <c:pt idx="105">
-                        <c:v>13.455091345653326</c:v>
-                      </c:pt>
-                      <c:pt idx="106">
-                        <c:v>12.085886804143264</c:v>
-                      </c:pt>
-                      <c:pt idx="107">
-                        <c:v>9.6637394851811447</c:v>
-                      </c:pt>
-                      <c:pt idx="108">
-                        <c:v>9.7121309218620091</c:v>
-                      </c:pt>
-                      <c:pt idx="109">
-                        <c:v>10.605084283106379</c:v>
-                      </c:pt>
-                      <c:pt idx="110">
-                        <c:v>11.253334223758484</c:v>
-                      </c:pt>
-                      <c:pt idx="111">
-                        <c:v>10.762767056958445</c:v>
-                      </c:pt>
-                      <c:pt idx="112">
-                        <c:v>9.736226196849918</c:v>
-                      </c:pt>
-                      <c:pt idx="113">
-                        <c:v>9.0167954997673423</c:v>
-                      </c:pt>
-                      <c:pt idx="114">
-                        <c:v>8.8043850427315355</c:v>
-                      </c:pt>
-                      <c:pt idx="115">
-                        <c:v>8.6982904321147121</c:v>
-                      </c:pt>
-                      <c:pt idx="116">
-                        <c:v>7.8058464665941187</c:v>
-                      </c:pt>
-                      <c:pt idx="117">
-                        <c:v>6.3709970455702614</c:v>
-                      </c:pt>
-                      <c:pt idx="118">
-                        <c:v>5.2156073943461916</c:v>
-                      </c:pt>
-                      <c:pt idx="119">
-                        <c:v>5.2647531678211319</c:v>
-                      </c:pt>
-                      <c:pt idx="120">
-                        <c:v>6.2754004820885818</c:v>
-                      </c:pt>
-                      <c:pt idx="121">
-                        <c:v>8.2428883177221355</c:v>
-                      </c:pt>
-                      <c:pt idx="122">
-                        <c:v>10.050342462896211</c:v>
-                      </c:pt>
-                      <c:pt idx="123">
-                        <c:v>11.142009885894105</c:v>
-                      </c:pt>
-                      <c:pt idx="124">
-                        <c:v>11.873707300217344</c:v>
-                      </c:pt>
-                      <c:pt idx="125">
-                        <c:v>12.748911450539037</c:v>
-                      </c:pt>
-                      <c:pt idx="126">
-                        <c:v>13.248468299247145</c:v>
-                      </c:pt>
-                      <c:pt idx="127">
-                        <c:v>10.896464368522286</c:v>
-                      </c:pt>
-                      <c:pt idx="128">
-                        <c:v>8.3625205230406543</c:v>
-                      </c:pt>
-                      <c:pt idx="129">
-                        <c:v>7.6118841283658751</c:v>
-                      </c:pt>
-                      <c:pt idx="130">
-                        <c:v>9.3081883483012433</c:v>
-                      </c:pt>
-                      <c:pt idx="131">
-                        <c:v>10.98020176927316</c:v>
-                      </c:pt>
-                      <c:pt idx="132">
-                        <c:v>12.014621247451876</c:v>
-                      </c:pt>
-                      <c:pt idx="133">
-                        <c:v>12.978132534494218</c:v>
-                      </c:pt>
-                      <c:pt idx="134">
-                        <c:v>14.176736612059063</c:v>
-                      </c:pt>
-                      <c:pt idx="135">
-                        <c:v>15.426864950834869</c:v>
-                      </c:pt>
-                      <c:pt idx="136">
-                        <c:v>15.345774772337254</c:v>
-                      </c:pt>
-                      <c:pt idx="137">
-                        <c:v>13.81485524073404</c:v>
-                      </c:pt>
-                      <c:pt idx="138">
-                        <c:v>10.740716699062729</c:v>
-                      </c:pt>
-                      <c:pt idx="139">
-                        <c:v>8.2347509359368605</c:v>
-                      </c:pt>
-                      <c:pt idx="140">
-                        <c:v>8.8002516976963019</c:v>
-                      </c:pt>
-                      <c:pt idx="141">
-                        <c:v>11.704041032436276</c:v>
-                      </c:pt>
-                      <c:pt idx="142">
-                        <c:v>13.256912446087998</c:v>
-                      </c:pt>
-                      <c:pt idx="143">
-                        <c:v>13.791534386789067</c:v>
-                      </c:pt>
-                      <c:pt idx="144">
-                        <c:v>15.15419274121213</c:v>
-                      </c:pt>
-                      <c:pt idx="145">
-                        <c:v>16.462974062575555</c:v>
-                      </c:pt>
-                      <c:pt idx="146">
-                        <c:v>15.288487573658905</c:v>
-                      </c:pt>
-                      <c:pt idx="147">
-                        <c:v>12.562968455069004</c:v>
-                      </c:pt>
-                      <c:pt idx="148">
-                        <c:v>10.570093718935928</c:v>
-                      </c:pt>
-                      <c:pt idx="149">
-                        <c:v>9.5555454118581213</c:v>
-                      </c:pt>
-                      <c:pt idx="150">
-                        <c:v>9.05530946813413</c:v>
-                      </c:pt>
-                      <c:pt idx="151">
-                        <c:v>8.8879351317259427</c:v>
-                      </c:pt>
-                      <c:pt idx="152">
-                        <c:v>9.2917397853343253</c:v>
-                      </c:pt>
-                      <c:pt idx="153">
-                        <c:v>9.7020027812803917</c:v>
-                      </c:pt>
-                      <c:pt idx="154">
-                        <c:v>9.4539902916232847</c:v>
-                      </c:pt>
-                      <c:pt idx="155">
-                        <c:v>8.9856457473906062</c:v>
-                      </c:pt>
-                      <c:pt idx="156">
-                        <c:v>8.4366762465018681</c:v>
-                      </c:pt>
-                      <c:pt idx="157">
-                        <c:v>7.6221713619392117</c:v>
-                      </c:pt>
-                      <c:pt idx="158">
-                        <c:v>7.1051004102886433</c:v>
-                      </c:pt>
-                      <c:pt idx="159">
-                        <c:v>7.374234240821675</c:v>
-                      </c:pt>
-                      <c:pt idx="160">
-                        <c:v>7.7881491137436658</c:v>
-                      </c:pt>
-                      <c:pt idx="161">
-                        <c:v>8.1707967767976424</c:v>
-                      </c:pt>
-                      <c:pt idx="162">
-                        <c:v>9.0121073257586701</c:v>
-                      </c:pt>
-                      <c:pt idx="163">
-                        <c:v>9.0604673748469384</c:v>
-                      </c:pt>
-                      <c:pt idx="164">
-                        <c:v>7.9459735888977967</c:v>
-                      </c:pt>
-                      <c:pt idx="165">
-                        <c:v>7.3146812305287936</c:v>
-                      </c:pt>
-                      <c:pt idx="166">
-                        <c:v>7.6176644254955974</c:v>
-                      </c:pt>
-                      <c:pt idx="167">
-                        <c:v>7.9088221085765777</c:v>
-                      </c:pt>
-                      <c:pt idx="168">
-                        <c:v>7.6491918372094334</c:v>
-                      </c:pt>
-                      <c:pt idx="169">
-                        <c:v>6.9538367705540338</c:v>
-                      </c:pt>
-                      <c:pt idx="170">
-                        <c:v>6.3360243950210071</c:v>
-                      </c:pt>
-                      <c:pt idx="171">
-                        <c:v>6.7018355753336714</c:v>
-                      </c:pt>
-                      <c:pt idx="172">
-                        <c:v>7.66011240591875</c:v>
-                      </c:pt>
-                      <c:pt idx="173">
-                        <c:v>7.5913070696611005</c:v>
-                      </c:pt>
-                      <c:pt idx="174">
-                        <c:v>7.0058796939895762</c:v>
-                      </c:pt>
-                      <c:pt idx="175">
-                        <c:v>6.9788563463868067</c:v>
-                      </c:pt>
-                      <c:pt idx="176">
-                        <c:v>7.4530933692784105</c:v>
-                      </c:pt>
-                      <c:pt idx="177">
-                        <c:v>7.8737847812631188</c:v>
-                      </c:pt>
-                      <c:pt idx="178">
-                        <c:v>7.6213258541941311</c:v>
-                      </c:pt>
-                      <c:pt idx="179">
-                        <c:v>6.9913389938879371</c:v>
-                      </c:pt>
-                      <c:pt idx="180">
-                        <c:v>6.7022398589547407</c:v>
-                      </c:pt>
-                      <c:pt idx="181">
-                        <c:v>6.7968513018471652</c:v>
-                      </c:pt>
-                      <c:pt idx="182">
-                        <c:v>7.0836871970905753</c:v>
-                      </c:pt>
-                      <c:pt idx="183">
-                        <c:v>7.0527080665318618</c:v>
-                      </c:pt>
-                      <c:pt idx="184">
-                        <c:v>6.6953795057089014</c:v>
-                      </c:pt>
-                      <c:pt idx="185">
-                        <c:v>6.5273932855936501</c:v>
-                      </c:pt>
-                      <c:pt idx="186">
-                        <c:v>6.915378900432982</c:v>
-                      </c:pt>
-                      <c:pt idx="187">
-                        <c:v>7.5603680390215544</c:v>
-                      </c:pt>
-                      <c:pt idx="188">
-                        <c:v>6.982736348271593</c:v>
-                      </c:pt>
-                      <c:pt idx="189">
-                        <c:v>5.2077980635405607</c:v>
-                      </c:pt>
-                      <c:pt idx="190">
-                        <c:v>3.7668629970053451</c:v>
-                      </c:pt>
-                      <c:pt idx="191">
-                        <c:v>4.5305295861138157</c:v>
-                      </c:pt>
-                      <c:pt idx="192">
-                        <c:v>6.4811214841067644</c:v>
-                      </c:pt>
-                      <c:pt idx="193">
-                        <c:v>8.2711160268149104</c:v>
-                      </c:pt>
-                      <c:pt idx="194">
-                        <c:v>9.4777832170986773</c:v>
-                      </c:pt>
-                      <c:pt idx="195">
-                        <c:v>9.5332691374665046</c:v>
-                      </c:pt>
-                      <c:pt idx="196">
-                        <c:v>9.0498484885320991</c:v>
-                      </c:pt>
-                      <c:pt idx="197">
-                        <c:v>8.2597816960833672</c:v>
-                      </c:pt>
-                      <c:pt idx="198">
-                        <c:v>7.6822397726181091</c:v>
-                      </c:pt>
-                      <c:pt idx="199">
-                        <c:v>7.8841751593163405</c:v>
-                      </c:pt>
-                      <c:pt idx="200">
-                        <c:v>8.3368336303875861</c:v>
-                      </c:pt>
-                      <c:pt idx="201">
-                        <c:v>8.1504526178378267</c:v>
-                      </c:pt>
-                      <c:pt idx="202">
-                        <c:v>7.3773573941167152</c:v>
-                      </c:pt>
-                      <c:pt idx="203">
-                        <c:v>7.6894305055528811</c:v>
-                      </c:pt>
-                      <c:pt idx="204">
-                        <c:v>9.578497987993039</c:v>
-                      </c:pt>
-                      <c:pt idx="205">
-                        <c:v>11.739411640602746</c:v>
-                      </c:pt>
-                      <c:pt idx="206">
-                        <c:v>11.89106070004482</c:v>
-                      </c:pt>
-                      <c:pt idx="207">
-                        <c:v>10.128207976481267</c:v>
-                      </c:pt>
-                      <c:pt idx="208">
-                        <c:v>9.323426832970334</c:v>
-                      </c:pt>
-                      <c:pt idx="209">
-                        <c:v>9.5410703466476203</c:v>
-                      </c:pt>
-                      <c:pt idx="210">
-                        <c:v>9.4841825529347314</c:v>
-                      </c:pt>
-                      <c:pt idx="211">
-                        <c:v>9.8820132013908992</c:v>
-                      </c:pt>
-                      <c:pt idx="212">
-                        <c:v>10.575520074881199</c:v>
-                      </c:pt>
-                      <c:pt idx="213">
-                        <c:v>11.094022153016214</c:v>
-                      </c:pt>
-                      <c:pt idx="214">
-                        <c:v>10.947090348767299</c:v>
-                      </c:pt>
-                      <c:pt idx="215">
-                        <c:v>10.154639013375403</c:v>
-                      </c:pt>
-                      <c:pt idx="216">
-                        <c:v>10.001013916817771</c:v>
-                      </c:pt>
-                      <c:pt idx="217">
-                        <c:v>10.673823256579336</c:v>
-                      </c:pt>
-                      <c:pt idx="218">
-                        <c:v>10.885903555850394</c:v>
-                      </c:pt>
-                      <c:pt idx="219">
-                        <c:v>11.011342549486788</c:v>
-                      </c:pt>
-                      <c:pt idx="220">
-                        <c:v>11.575273900231743</c:v>
-                      </c:pt>
-                      <c:pt idx="221">
-                        <c:v>12.342335780035869</c:v>
-                      </c:pt>
-                      <c:pt idx="222">
-                        <c:v>13.167815805995616</c:v>
-                      </c:pt>
-                      <c:pt idx="223">
-                        <c:v>13.730297846230142</c:v>
-                      </c:pt>
-                      <c:pt idx="224">
-                        <c:v>14.29925263868738</c:v>
-                      </c:pt>
-                      <c:pt idx="225">
-                        <c:v>15.162040350748406</c:v>
-                      </c:pt>
-                      <c:pt idx="226">
-                        <c:v>16.131231023679426</c:v>
-                      </c:pt>
-                      <c:pt idx="227">
-                        <c:v>16.450808625664408</c:v>
-                      </c:pt>
-                      <c:pt idx="228">
-                        <c:v>15.705603033895226</c:v>
-                      </c:pt>
-                      <c:pt idx="229">
-                        <c:v>14.085986562998981</c:v>
-                      </c:pt>
-                      <c:pt idx="230">
-                        <c:v>12.753935394119578</c:v>
-                      </c:pt>
-                      <c:pt idx="231">
-                        <c:v>12.33347604313018</c:v>
-                      </c:pt>
-                      <c:pt idx="232">
-                        <c:v>12.021741701251385</c:v>
-                      </c:pt>
-                      <c:pt idx="233">
-                        <c:v>11.1352953954861</c:v>
-                      </c:pt>
-                      <c:pt idx="234">
-                        <c:v>10.347391704108745</c:v>
-                      </c:pt>
-                      <c:pt idx="235">
-                        <c:v>11.443638909804639</c:v>
-                      </c:pt>
-                      <c:pt idx="236">
-                        <c:v>12.939939132716708</c:v>
-                      </c:pt>
-                      <c:pt idx="237">
-                        <c:v>14.163282498303593</c:v>
-                      </c:pt>
-                      <c:pt idx="238">
-                        <c:v>13.861018044739904</c:v>
-                      </c:pt>
-                      <c:pt idx="239">
-                        <c:v>12.387730390840769</c:v>
-                      </c:pt>
-                      <c:pt idx="240">
-                        <c:v>12.404749071966975</c:v>
-                      </c:pt>
-                      <c:pt idx="241">
-                        <c:v>12.695885578720082</c:v>
-                      </c:pt>
-                      <c:pt idx="242">
-                        <c:v>11.469958876976401</c:v>
-                      </c:pt>
-                      <c:pt idx="243">
-                        <c:v>9.9483286137456108</c:v>
-                      </c:pt>
-                      <c:pt idx="244">
-                        <c:v>9.8079033240039237</c:v>
-                      </c:pt>
-                      <c:pt idx="245">
-                        <c:v>10.885859593564142</c:v>
-                      </c:pt>
-                      <c:pt idx="246">
-                        <c:v>12.488433249253656</c:v>
-                      </c:pt>
-                      <c:pt idx="247">
-                        <c:v>14.029194360714943</c:v>
-                      </c:pt>
-                      <c:pt idx="248">
-                        <c:v>14.433767944378314</c:v>
-                      </c:pt>
-                      <c:pt idx="249">
-                        <c:v>13.634947266017777</c:v>
-                      </c:pt>
-                      <c:pt idx="250">
-                        <c:v>12.382997299773589</c:v>
-                      </c:pt>
-                      <c:pt idx="251">
-                        <c:v>12.42014701153818</c:v>
-                      </c:pt>
-                      <c:pt idx="252">
-                        <c:v>13.633576059429712</c:v>
-                      </c:pt>
-                      <c:pt idx="253">
-                        <c:v>14.057703393965724</c:v>
-                      </c:pt>
-                      <c:pt idx="254">
-                        <c:v>13.625081436190584</c:v>
-                      </c:pt>
-                      <c:pt idx="255">
-                        <c:v>12.425550651899011</c:v>
-                      </c:pt>
-                      <c:pt idx="256">
-                        <c:v>11.209545431832783</c:v>
-                      </c:pt>
-                      <c:pt idx="257">
-                        <c:v>11.075532092887311</c:v>
-                      </c:pt>
-                      <c:pt idx="258">
-                        <c:v>12.254410523258212</c:v>
-                      </c:pt>
-                      <c:pt idx="259">
-                        <c:v>13.976019182483387</c:v>
-                      </c:pt>
-                      <c:pt idx="260">
-                        <c:v>15.773490691632734</c:v>
-                      </c:pt>
-                      <c:pt idx="261">
-                        <c:v>16.931597498783823</c:v>
-                      </c:pt>
-                      <c:pt idx="262">
-                        <c:v>16.884685648278371</c:v>
-                      </c:pt>
-                      <c:pt idx="263">
-                        <c:v>15.485744367016899</c:v>
-                      </c:pt>
-                      <c:pt idx="264">
-                        <c:v>12.867723095246237</c:v>
-                      </c:pt>
-                      <c:pt idx="265">
-                        <c:v>10.576531834313391</c:v>
-                      </c:pt>
-                      <c:pt idx="266">
-                        <c:v>9.8417183216983961</c:v>
-                      </c:pt>
-                      <c:pt idx="267">
-                        <c:v>10.376017177909775</c:v>
-                      </c:pt>
-                      <c:pt idx="268">
-                        <c:v>10.931589073113726</c:v>
-                      </c:pt>
-                      <c:pt idx="269">
-                        <c:v>11.912839940393429</c:v>
-                      </c:pt>
-                      <c:pt idx="270">
-                        <c:v>13.156207543476377</c:v>
-                      </c:pt>
-                      <c:pt idx="271">
-                        <c:v>13.920115499844453</c:v>
-                      </c:pt>
-                      <c:pt idx="272">
-                        <c:v>14.375744089528775</c:v>
-                      </c:pt>
-                      <c:pt idx="273">
-                        <c:v>14.259513972150323</c:v>
-                      </c:pt>
-                      <c:pt idx="274">
-                        <c:v>14.453323327916902</c:v>
-                      </c:pt>
-                      <c:pt idx="275">
-                        <c:v>14.812907912283674</c:v>
-                      </c:pt>
-                      <c:pt idx="276">
-                        <c:v>14.940602139054608</c:v>
-                      </c:pt>
-                      <c:pt idx="277">
-                        <c:v>14.61683488234485</c:v>
-                      </c:pt>
-                      <c:pt idx="278">
-                        <c:v>13.801455545289198</c:v>
-                      </c:pt>
-                      <c:pt idx="279">
-                        <c:v>12.933225547391871</c:v>
-                      </c:pt>
-                      <c:pt idx="280">
-                        <c:v>12.296173617309156</c:v>
-                      </c:pt>
-                      <c:pt idx="281">
-                        <c:v>12.399784524334443</c:v>
-                      </c:pt>
-                      <c:pt idx="282">
-                        <c:v>13.64488966740813</c:v>
-                      </c:pt>
-                      <c:pt idx="283">
-                        <c:v>16.337602956409814</c:v>
-                      </c:pt>
-                      <c:pt idx="284">
-                        <c:v>17.814669771105855</c:v>
-                      </c:pt>
-                      <c:pt idx="285">
-                        <c:v>15.787826864794321</c:v>
-                      </c:pt>
-                      <c:pt idx="286">
-                        <c:v>14.02781169763958</c:v>
-                      </c:pt>
-                      <c:pt idx="287">
-                        <c:v>12.98373074225966</c:v>
-                      </c:pt>
-                      <c:pt idx="288">
-                        <c:v>12.464474613060844</c:v>
-                      </c:pt>
-                      <c:pt idx="289">
-                        <c:v>12.853022345596898</c:v>
-                      </c:pt>
-                      <c:pt idx="290">
-                        <c:v>14.120699688429431</c:v>
-                      </c:pt>
-                      <c:pt idx="291">
-                        <c:v>15.021033109327853</c:v>
-                      </c:pt>
-                      <c:pt idx="292">
-                        <c:v>15.268808888379381</c:v>
-                      </c:pt>
-                      <c:pt idx="293">
-                        <c:v>14.511830276667</c:v>
-                      </c:pt>
-                      <c:pt idx="294">
-                        <c:v>13.559284634325586</c:v>
-                      </c:pt>
-                      <c:pt idx="295">
-                        <c:v>12.537247784089775</c:v>
-                      </c:pt>
-                      <c:pt idx="296">
-                        <c:v>11.026151318610435</c:v>
-                      </c:pt>
-                      <c:pt idx="297">
-                        <c:v>10.034469097392549</c:v>
-                      </c:pt>
-                      <c:pt idx="298">
-                        <c:v>10.695568958543877</c:v>
-                      </c:pt>
-                      <c:pt idx="299">
-                        <c:v>13.196650826060683</c:v>
-                      </c:pt>
-                      <c:pt idx="300">
-                        <c:v>18.59608754833295</c:v>
-                      </c:pt>
-                      <c:pt idx="301">
-                        <c:v>24.377568824524381</c:v>
-                      </c:pt>
-                      <c:pt idx="302">
-                        <c:v>24.979440192601473</c:v>
-                      </c:pt>
-                      <c:pt idx="303">
-                        <c:v>21.531720467717943</c:v>
-                      </c:pt>
-                      <c:pt idx="304">
-                        <c:v>17.766527203070495</c:v>
-                      </c:pt>
-                      <c:pt idx="305">
-                        <c:v>15.964688693413187</c:v>
-                      </c:pt>
-                      <c:pt idx="306">
-                        <c:v>16.020098098157572</c:v>
-                      </c:pt>
-                      <c:pt idx="307">
-                        <c:v>16.408341414233398</c:v>
-                      </c:pt>
-                      <c:pt idx="308">
-                        <c:v>17.005274041447873</c:v>
-                      </c:pt>
-                      <c:pt idx="309">
-                        <c:v>17.813516418275704</c:v>
-                      </c:pt>
-                      <c:pt idx="310">
-                        <c:v>18.039619772481736</c:v>
-                      </c:pt>
-                      <c:pt idx="311">
-                        <c:v>17.221372766520535</c:v>
-                      </c:pt>
-                      <c:pt idx="312">
-                        <c:v>15.963542649082152</c:v>
-                      </c:pt>
-                      <c:pt idx="313">
-                        <c:v>14.719215622841702</c:v>
-                      </c:pt>
-                      <c:pt idx="314">
-                        <c:v>13.989879242020315</c:v>
-                      </c:pt>
-                      <c:pt idx="315">
-                        <c:v>13.755948616255004</c:v>
-                      </c:pt>
-                      <c:pt idx="316">
-                        <c:v>14.604661675021163</c:v>
-                      </c:pt>
-                      <c:pt idx="317">
-                        <c:v>16.956894183689027</c:v>
-                      </c:pt>
-                      <c:pt idx="318">
-                        <c:v>18.706435240423463</c:v>
-                      </c:pt>
-                      <c:pt idx="319">
-                        <c:v>19.729995746168498</c:v>
-                      </c:pt>
-                      <c:pt idx="320">
-                        <c:v>19.418615533584564</c:v>
-                      </c:pt>
-                      <c:pt idx="321">
-                        <c:v>17.767209251566857</c:v>
-                      </c:pt>
-                      <c:pt idx="322">
-                        <c:v>16.829507482962768</c:v>
-                      </c:pt>
-                      <c:pt idx="323">
-                        <c:v>17.0588908378779</c:v>
-                      </c:pt>
-                      <c:pt idx="324">
-                        <c:v>16.845287893936959</c:v>
-                      </c:pt>
-                      <c:pt idx="325">
-                        <c:v>15.616600142392269</c:v>
-                      </c:pt>
-                      <c:pt idx="326">
-                        <c:v>14.556270418861674</c:v>
-                      </c:pt>
-                      <c:pt idx="327">
-                        <c:v>14.344508258130181</c:v>
-                      </c:pt>
-                      <c:pt idx="328">
-                        <c:v>15.323988321970504</c:v>
-                      </c:pt>
-                      <c:pt idx="329">
-                        <c:v>16.958685016081265</c:v>
-                      </c:pt>
-                      <c:pt idx="330">
-                        <c:v>18.4629180537429</c:v>
-                      </c:pt>
-                      <c:pt idx="331">
-                        <c:v>18.661044869147247</c:v>
-                      </c:pt>
-                      <c:pt idx="332">
-                        <c:v>16.782757443721181</c:v>
-                      </c:pt>
-                      <c:pt idx="333">
-                        <c:v>16.289975542217171</c:v>
-                      </c:pt>
-                      <c:pt idx="334">
-                        <c:v>17.542362311032704</c:v>
-                      </c:pt>
-                      <c:pt idx="335">
-                        <c:v>16.966083592889532</c:v>
-                      </c:pt>
-                      <c:pt idx="336">
-                        <c:v>15.45641362900647</c:v>
-                      </c:pt>
-                      <c:pt idx="337">
-                        <c:v>15.482998427218128</c:v>
-                      </c:pt>
-                      <c:pt idx="338">
-                        <c:v>16.351253110549859</c:v>
-                      </c:pt>
-                      <c:pt idx="339">
-                        <c:v>17.742082222603109</c:v>
-                      </c:pt>
-                      <c:pt idx="340">
-                        <c:v>19.392944402028217</c:v>
-                      </c:pt>
-                      <c:pt idx="341">
-                        <c:v>19.591033094638192</c:v>
-                      </c:pt>
-                      <c:pt idx="342">
-                        <c:v>16.978941433750219</c:v>
-                      </c:pt>
-                      <c:pt idx="343">
-                        <c:v>13.077862221751097</c:v>
-                      </c:pt>
-                      <c:pt idx="344">
-                        <c:v>10.611319652091286</c:v>
-                      </c:pt>
-                      <c:pt idx="345">
-                        <c:v>9.7733280277251176</c:v>
-                      </c:pt>
-                      <c:pt idx="346">
-                        <c:v>8.7885519528831946</c:v>
-                      </c:pt>
-                      <c:pt idx="347">
-                        <c:v>8.2442090364594858</c:v>
-                      </c:pt>
-                      <c:pt idx="348">
-                        <c:v>9.73137585505091</c:v>
-                      </c:pt>
-                      <c:pt idx="349">
-                        <c:v>11.264574958515801</c:v>
-                      </c:pt>
-                      <c:pt idx="350">
-                        <c:v>13.004872283801085</c:v>
-                      </c:pt>
-                      <c:pt idx="351">
-                        <c:v>17.891397476590555</c:v>
-                      </c:pt>
-                      <c:pt idx="352">
-                        <c:v>21.405347657079144</c:v>
-                      </c:pt>
-                      <c:pt idx="353">
-                        <c:v>18.660338777878543</c:v>
-                      </c:pt>
-                      <c:pt idx="354">
-                        <c:v>13.848286929407454</c:v>
-                      </c:pt>
-                      <c:pt idx="355">
-                        <c:v>11.513244926606758</c:v>
-                      </c:pt>
-                      <c:pt idx="356">
-                        <c:v>11.611172392296284</c:v>
-                      </c:pt>
-                      <c:pt idx="357">
-                        <c:v>12.033827632123172</c:v>
-                      </c:pt>
-                      <c:pt idx="358">
-                        <c:v>11.80732866041126</c:v>
-                      </c:pt>
-                      <c:pt idx="359">
-                        <c:v>12.174559715402481</c:v>
-                      </c:pt>
-                      <c:pt idx="360">
-                        <c:v>13.372545602633815</c:v>
-                      </c:pt>
-                      <c:pt idx="361">
-                        <c:v>14.186263808774864</c:v>
-                      </c:pt>
-                      <c:pt idx="362">
-                        <c:v>14.702280906239956</c:v>
-                      </c:pt>
-                      <c:pt idx="363">
-                        <c:v>15.134589162990173</c:v>
-                      </c:pt>
-                      <c:pt idx="364">
-                        <c:v>14.868639743019131</c:v>
-                      </c:pt>
-                      <c:pt idx="365">
-                        <c:v>14.085885383075038</c:v>
-                      </c:pt>
-                      <c:pt idx="366">
-                        <c:v>13.19014378715687</c:v>
-                      </c:pt>
-                      <c:pt idx="367">
-                        <c:v>12.496409299852481</c:v>
-                      </c:pt>
-                      <c:pt idx="368">
-                        <c:v>13.248050388687378</c:v>
-                      </c:pt>
-                      <c:pt idx="369">
-                        <c:v>13.393689653444097</c:v>
-                      </c:pt>
-                      <c:pt idx="370">
-                        <c:v>11.38845428928011</c:v>
-                      </c:pt>
-                      <c:pt idx="371">
-                        <c:v>10.154164466023619</c:v>
-                      </c:pt>
-                      <c:pt idx="372">
-                        <c:v>11.78748316513507</c:v>
-                      </c:pt>
-                      <c:pt idx="373">
-                        <c:v>14.90861644955482</c:v>
-                      </c:pt>
-                      <c:pt idx="374">
-                        <c:v>16.764995865330761</c:v>
-                      </c:pt>
-                      <c:pt idx="375">
-                        <c:v>15.813815025731262</c:v>
-                      </c:pt>
-                      <c:pt idx="376">
-                        <c:v>11.844128948512754</c:v>
-                      </c:pt>
-                      <c:pt idx="377">
-                        <c:v>7.6281885124516382</c:v>
-                      </c:pt>
-                      <c:pt idx="378">
-                        <c:v>5.7187433899582274</c:v>
-                      </c:pt>
-                      <c:pt idx="379">
-                        <c:v>6.1542599913940181</c:v>
-                      </c:pt>
-                      <c:pt idx="380">
-                        <c:v>7.2782432901417469</c:v>
-                      </c:pt>
-                      <c:pt idx="381">
-                        <c:v>9.5546164328519509</c:v>
-                      </c:pt>
-                      <c:pt idx="382">
-                        <c:v>11.664349738132485</c:v>
-                      </c:pt>
-                      <c:pt idx="383">
-                        <c:v>12.791625048453295</c:v>
-                      </c:pt>
-                      <c:pt idx="384">
-                        <c:v>13.710702457215866</c:v>
-                      </c:pt>
-                      <c:pt idx="385">
-                        <c:v>14.849439019064908</c:v>
-                      </c:pt>
-                      <c:pt idx="386">
-                        <c:v>15.619861653821204</c:v>
-                      </c:pt>
-                      <c:pt idx="387">
-                        <c:v>16.365507268497762</c:v>
-                      </c:pt>
-                      <c:pt idx="388">
-                        <c:v>16.624968319314064</c:v>
-                      </c:pt>
-                      <c:pt idx="389">
-                        <c:v>15.642401070888193</c:v>
-                      </c:pt>
-                      <c:pt idx="390">
-                        <c:v>14.443982654465504</c:v>
-                      </c:pt>
-                      <c:pt idx="391">
-                        <c:v>15.000442583029557</c:v>
-                      </c:pt>
-                      <c:pt idx="392">
-                        <c:v>14.662827402225895</c:v>
-                      </c:pt>
-                      <c:pt idx="393">
-                        <c:v>10.759144381160251</c:v>
-                      </c:pt>
-                      <c:pt idx="394">
-                        <c:v>8.0671340671757878</c:v>
-                      </c:pt>
-                      <c:pt idx="395">
-                        <c:v>9.5581910478679664</c:v>
-                      </c:pt>
-                      <c:pt idx="396">
-                        <c:v>11.452077735480607</c:v>
-                      </c:pt>
-                      <c:pt idx="397">
-                        <c:v>10.4405826054698</c:v>
-                      </c:pt>
-                      <c:pt idx="398">
-                        <c:v>8.1011644864184102</c:v>
-                      </c:pt>
-                      <c:pt idx="399">
-                        <c:v>7.2971693328566509</c:v>
-                      </c:pt>
-                      <c:pt idx="400">
-                        <c:v>8.7584377235073418</c:v>
-                      </c:pt>
-                      <c:pt idx="401">
-                        <c:v>10.462183720190415</c:v>
-                      </c:pt>
-                      <c:pt idx="402">
-                        <c:v>9.9076148180354835</c:v>
-                      </c:pt>
-                      <c:pt idx="403">
-                        <c:v>8.1314203410167334</c:v>
-                      </c:pt>
-                      <c:pt idx="404">
-                        <c:v>6.8149396339075574</c:v>
-                      </c:pt>
-                      <c:pt idx="405">
-                        <c:v>6.0950855158530901</c:v>
-                      </c:pt>
-                      <c:pt idx="406">
-                        <c:v>5.8505948214961645</c:v>
-                      </c:pt>
-                      <c:pt idx="407">
-                        <c:v>5.9879635568581691</c:v>
-                      </c:pt>
-                      <c:pt idx="408">
-                        <c:v>5.8112113735352215</c:v>
-                      </c:pt>
-                      <c:pt idx="409">
-                        <c:v>5.4346283521370147</c:v>
-                      </c:pt>
-                      <c:pt idx="410">
-                        <c:v>5.7923430290661546</c:v>
-                      </c:pt>
-                      <c:pt idx="411">
-                        <c:v>6.3844490390305602</c:v>
-                      </c:pt>
-                      <c:pt idx="412">
-                        <c:v>6.7612602458835998</c:v>
-                      </c:pt>
-                      <c:pt idx="413">
-                        <c:v>7.0844801299858986</c:v>
-                      </c:pt>
-                      <c:pt idx="414">
-                        <c:v>7.3738776515289794</c:v>
-                      </c:pt>
-                      <c:pt idx="415">
-                        <c:v>8.0937480863433162</c:v>
-                      </c:pt>
-                      <c:pt idx="416">
-                        <c:v>8.9117153149342165</c:v>
-                      </c:pt>
-                      <c:pt idx="417">
-                        <c:v>8.8278426020443757</c:v>
-                      </c:pt>
-                      <c:pt idx="418">
-                        <c:v>7.8032288768427174</c:v>
-                      </c:pt>
-                      <c:pt idx="419">
-                        <c:v>6.8507472678002772</c:v>
-                      </c:pt>
-                      <c:pt idx="420">
-                        <c:v>5.7735464031398385</c:v>
-                      </c:pt>
-                      <c:pt idx="421">
-                        <c:v>4.7095307061011216</c:v>
-                      </c:pt>
-                      <c:pt idx="422">
-                        <c:v>3.7592335421960703</c:v>
-                      </c:pt>
-                      <c:pt idx="423">
-                        <c:v>2.0736347599660627</c:v>
-                      </c:pt>
-                      <c:pt idx="424">
-                        <c:v>1.9633767234938413</c:v>
-                      </c:pt>
-                      <c:pt idx="425">
-                        <c:v>3.6342599673446454</c:v>
-                      </c:pt>
-                      <c:pt idx="426">
-                        <c:v>4.491625796194767</c:v>
-                      </c:pt>
-                      <c:pt idx="427">
-                        <c:v>4.3127690034028454</c:v>
-                      </c:pt>
-                      <c:pt idx="428">
-                        <c:v>3.2991860566449862</c:v>
-                      </c:pt>
-                      <c:pt idx="429">
-                        <c:v>2.7756963222092512</c:v>
-                      </c:pt>
-                      <c:pt idx="430">
-                        <c:v>3.2494292753299812</c:v>
-                      </c:pt>
-                      <c:pt idx="431">
-                        <c:v>3.7762385554440567</c:v>
-                      </c:pt>
-                      <c:pt idx="432">
-                        <c:v>3.8126868122514099</c:v>
-                      </c:pt>
-                      <c:pt idx="433">
-                        <c:v>3.6550751375642667</c:v>
-                      </c:pt>
-                      <c:pt idx="434">
-                        <c:v>3.7847352378680927</c:v>
-                      </c:pt>
-                      <c:pt idx="435">
-                        <c:v>4.18373535614485</c:v>
-                      </c:pt>
-                      <c:pt idx="436">
-                        <c:v>4.4787818325976927</c:v>
-                      </c:pt>
-                      <c:pt idx="437">
-                        <c:v>4.3733895848489448</c:v>
-                      </c:pt>
-                      <c:pt idx="438">
-                        <c:v>3.7934940392401568</c:v>
-                      </c:pt>
-                      <c:pt idx="439">
-                        <c:v>3.162413149768649</c:v>
-                      </c:pt>
-                      <c:pt idx="440">
-                        <c:v>2.7075569684353389</c:v>
-                      </c:pt>
-                      <c:pt idx="441">
-                        <c:v>2.1398834836355927</c:v>
-                      </c:pt>
-                      <c:pt idx="442">
-                        <c:v>1.6689403636966222</c:v>
-                      </c:pt>
-                      <c:pt idx="443">
-                        <c:v>1.3019907482657516</c:v>
-                      </c:pt>
-                      <c:pt idx="444">
-                        <c:v>1.4746602510201472</c:v>
-                      </c:pt>
-                      <c:pt idx="445">
-                        <c:v>2.3353529204189565</c:v>
-                      </c:pt>
-                      <c:pt idx="446">
-                        <c:v>3.1906632549589831</c:v>
-                      </c:pt>
-                      <c:pt idx="447">
-                        <c:v>3.3136352953338344</c:v>
-                      </c:pt>
-                      <c:pt idx="448">
-                        <c:v>2.9272121159036799</c:v>
-                      </c:pt>
-                      <c:pt idx="449">
-                        <c:v>2.4412940202637161</c:v>
-                      </c:pt>
-                      <c:pt idx="450">
-                        <c:v>2.0181021111008564</c:v>
-                      </c:pt>
-                      <c:pt idx="451">
-                        <c:v>1.7561692962624864</c:v>
-                      </c:pt>
-                      <c:pt idx="452">
-                        <c:v>1.7004788424048196</c:v>
-                      </c:pt>
-                      <c:pt idx="453">
-                        <c:v>1.8197322269430254</c:v>
-                      </c:pt>
-                      <c:pt idx="454">
-                        <c:v>1.9067038922266133</c:v>
-                      </c:pt>
-                      <c:pt idx="455">
-                        <c:v>2.0034076670971226</c:v>
-                      </c:pt>
-                      <c:pt idx="456">
-                        <c:v>1.9953944015078211</c:v>
-                      </c:pt>
-                      <c:pt idx="457">
-                        <c:v>1.9360481630613695</c:v>
-                      </c:pt>
-                      <c:pt idx="458">
-                        <c:v>1.7847111962501472</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000004-BBCF-467D-9912-CD0EB615D6A8}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -7184,15 +7184,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="1"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:v>1.1</c:v>
+            <c:v>1.3</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7203,9 +7203,9 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>'LC1.1'!$D:$D</c:f>
+              <c:f>'LC1.3'!$D:$D</c:f>
               <c:strCache>
-                <c:ptCount val="240"/>
+                <c:ptCount val="313"/>
                 <c:pt idx="0">
                   <c:v>distance</c:v>
                 </c:pt>
@@ -7926,12 +7926,232 @@
                 <c:pt idx="239">
                   <c:v>239</c:v>
                 </c:pt>
+                <c:pt idx="240">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>241</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>242</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>243</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>244</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>245</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>247</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>248</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>249</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>251</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>254</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>258</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>259</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>260</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>261</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>263</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>269</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>271</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>272</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>275</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>277</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>278</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>279</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>283</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>285</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>290</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>291</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>292</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>293</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>295</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>296</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>298</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>299</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>301</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>303</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>304</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>307</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>309</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>311</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>312</c:v>
+                </c:pt>
               </c:strCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LC1.1'!$E:$E</c:f>
+              <c:f>'LC1.3'!$E:$E</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
@@ -7939,729 +8159,949 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.442561960724198</c:v>
+                  <c:v>11.992254378216675</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17.531415156878648</c:v>
+                  <c:v>28.532316372601947</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15.199380734624004</c:v>
+                  <c:v>35.744977331701982</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>14.892835760743351</c:v>
+                  <c:v>33.211757451990323</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.155379228898219</c:v>
+                  <c:v>31.670330378078525</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.297198954624092</c:v>
+                  <c:v>40.868478104181072</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15.84216427527914</c:v>
+                  <c:v>58.480704544253996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>14.272135654990302</c:v>
+                  <c:v>69.492311054137687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.639914944104925</c:v>
+                  <c:v>70.629328371386137</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.938682941348759</c:v>
+                  <c:v>67.160444185703028</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>21.869357396245569</c:v>
+                  <c:v>56.515032926989619</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.311924317473768</c:v>
+                  <c:v>41.999786530840097</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52.126104138696775</c:v>
+                  <c:v>32.458323140090087</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>54.880390336523973</c:v>
+                  <c:v>31.035799247793406</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>53.520178151894775</c:v>
+                  <c:v>31.368534460888974</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>47.752133760299586</c:v>
+                  <c:v>31.23135138138457</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>39.61833915996742</c:v>
+                  <c:v>29.968338789598683</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>34.381000468361378</c:v>
+                  <c:v>33.078408675459194</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>33.830581783764828</c:v>
+                  <c:v>41.170815789988922</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>35.488357373470201</c:v>
+                  <c:v>44.054529231838998</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>35.642495354670352</c:v>
+                  <c:v>40.074370664885727</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>33.544283998559422</c:v>
+                  <c:v>33.066867843447184</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32.287454985471257</c:v>
+                  <c:v>31.122581607843383</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>33.89387891139323</c:v>
+                  <c:v>34.288347555824174</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>35.932845344708284</c:v>
+                  <c:v>34.947644411298789</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>36.703810558166275</c:v>
+                  <c:v>33.057974294337271</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>35.831502510491703</c:v>
+                  <c:v>31.351760709139079</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>33.698785796352411</c:v>
+                  <c:v>30.430472413671694</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>33.209007279408965</c:v>
+                  <c:v>30.973820741088897</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>35.65789557801638</c:v>
+                  <c:v>31.777120509167744</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>38.879009473251209</c:v>
+                  <c:v>31.330187909376736</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>39.899550280230812</c:v>
+                  <c:v>30.047823979148454</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>37.544254955111398</c:v>
+                  <c:v>28.988155170730192</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34.087900803063505</c:v>
+                  <c:v>30.339401178625302</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>32.922980105305612</c:v>
+                  <c:v>33.517340710840877</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>34.174989622425052</c:v>
+                  <c:v>34.61350038956396</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>36.283093434937179</c:v>
+                  <c:v>33.82517258680943</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>37.40037254804988</c:v>
+                  <c:v>33.83443735602598</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>35.456329398082858</c:v>
+                  <c:v>35.009359558625647</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>32.952171137844559</c:v>
+                  <c:v>34.89786977670618</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>32.782707341006116</c:v>
+                  <c:v>33.238614361414946</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>33.068320390740283</c:v>
+                  <c:v>32.133868142902898</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>32.837523549197428</c:v>
+                  <c:v>33.032019717956153</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>32.74569571391374</c:v>
+                  <c:v>33.66606459102772</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>32.514580346553714</c:v>
+                  <c:v>32.841375446368318</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>31.050133233940223</c:v>
+                  <c:v>31.592760596374244</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>29.363484363446965</c:v>
+                  <c:v>32.171750283964904</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>31.955613729320007</c:v>
+                  <c:v>34.859954380613488</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>38.518089221923177</c:v>
+                  <c:v>36.773096493601855</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>42.894093960282198</c:v>
+                  <c:v>36.169761602154537</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>41.709040788704996</c:v>
+                  <c:v>33.143116692872745</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>36.053424814762799</c:v>
+                  <c:v>29.884346849656652</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>31.763445763845532</c:v>
+                  <c:v>28.253293198391603</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>34.416088393153117</c:v>
+                  <c:v>28.988721436298313</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>39.089165318860594</c:v>
+                  <c:v>32.606235997315672</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>40.240796530783967</c:v>
+                  <c:v>36.236010498233156</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>39.864994600693969</c:v>
+                  <c:v>36.557541242311615</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>41.10204088015545</c:v>
+                  <c:v>34.179733346091481</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>45.151892072534075</c:v>
+                  <c:v>31.847080613061312</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>49.108801259423714</c:v>
+                  <c:v>29.783066624314998</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>47.926909174035814</c:v>
+                  <c:v>29.05138711545473</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>41.469467653907564</c:v>
+                  <c:v>30.080556053030829</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>35.482576465661438</c:v>
+                  <c:v>31.472812954849701</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>33.601800563769963</c:v>
+                  <c:v>33.098256826761066</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>34.989564178952939</c:v>
+                  <c:v>32.53009000810836</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>37.125327957713623</c:v>
+                  <c:v>29.82910593963685</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>36.744049276446461</c:v>
+                  <c:v>28.98925900131357</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>36.710592846945325</c:v>
+                  <c:v>30.731667028476362</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>39.17003970723097</c:v>
+                  <c:v>31.034091586378295</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>37.925522313675955</c:v>
+                  <c:v>30.409011193741645</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>33.395968682197079</c:v>
+                  <c:v>30.36639967935966</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>33.853339348180263</c:v>
+                  <c:v>29.527266610837579</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>40.609848426694157</c:v>
+                  <c:v>30.197511045503031</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>46.500375247075453</c:v>
+                  <c:v>32.45411119754948</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>46.834290981481082</c:v>
+                  <c:v>36.957647862797444</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>44.107838025185821</c:v>
+                  <c:v>41.840604194551929</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>43.148237072500976</c:v>
+                  <c:v>42.07056257459368</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>44.773400469824466</c:v>
+                  <c:v>35.905779553200162</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>45.306106517290118</c:v>
+                  <c:v>29.295149434433075</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>43.65072434104772</c:v>
+                  <c:v>28.91287077259436</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>43.577893558483318</c:v>
+                  <c:v>29.526345626634463</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>48.037819208558396</c:v>
+                  <c:v>28.853007425260721</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>52.402318660987369</c:v>
+                  <c:v>29.472850839054495</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>48.64408356619694</c:v>
+                  <c:v>30.759526926991825</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>39.508283388595267</c:v>
+                  <c:v>30.996663207798751</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>34.654061500194615</c:v>
+                  <c:v>31.068396972583223</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>36.151848142283121</c:v>
+                  <c:v>30.960711234917206</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>39.67589254983487</c:v>
+                  <c:v>29.830579344462208</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>39.062403725018882</c:v>
+                  <c:v>27.848895258198514</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>31.934307538382463</c:v>
+                  <c:v>26.483106038216025</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>24.917890666625386</c:v>
+                  <c:v>27.025359462590394</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>22.359864588529732</c:v>
+                  <c:v>27.348843418389198</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>21.217215605906823</c:v>
+                  <c:v>26.757174171959868</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>19.271571112451483</c:v>
+                  <c:v>26.571892069753513</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>19.17943727323868</c:v>
+                  <c:v>26.617078886715866</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>22.238913432478199</c:v>
+                  <c:v>26.671427749887307</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>24.880269844665943</c:v>
+                  <c:v>27.724206179687783</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>24.351441211754079</c:v>
+                  <c:v>28.845994762981626</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>21.718191344119781</c:v>
+                  <c:v>29.181089590527538</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>19.84215984262795</c:v>
+                  <c:v>29.156943073991663</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>20.841581037637262</c:v>
+                  <c:v>29.116688619896408</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>22.810929543449895</c:v>
+                  <c:v>28.709225052439784</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>23.391710485375391</c:v>
+                  <c:v>28.487282737792221</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>23.345417414589125</c:v>
+                  <c:v>28.456186474815418</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>23.107158615930139</c:v>
+                  <c:v>27.670574195041549</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>22.314261079293232</c:v>
+                  <c:v>26.639707428316814</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>21.891256236911264</c:v>
+                  <c:v>26.502491839761039</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>22.494123934676846</c:v>
+                  <c:v>26.227809819041646</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>22.668759240351374</c:v>
+                  <c:v>25.518800359277826</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>21.616644218624977</c:v>
+                  <c:v>25.700152538727707</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>20.177493596777957</c:v>
+                  <c:v>26.787753267505362</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>19.022295716926983</c:v>
+                  <c:v>27.747357223874225</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>18.498954924577717</c:v>
+                  <c:v>29.482719352750099</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>18.177488778682047</c:v>
+                  <c:v>32.389272136354336</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>17.631366621405871</c:v>
+                  <c:v>33.659161130264081</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>17.975208206177939</c:v>
+                  <c:v>32.105993064676582</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>18.708845815633964</c:v>
+                  <c:v>29.88288902723977</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>18.674577862432667</c:v>
+                  <c:v>25.993545302214002</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>17.59502741326601</c:v>
+                  <c:v>23.828449194099736</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>15.199860334810319</c:v>
+                  <c:v>23.608307238414277</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>13.393077551002914</c:v>
+                  <c:v>24.080582593222509</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>13.63673006622431</c:v>
+                  <c:v>24.765648326041031</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>15.447688469822033</c:v>
+                  <c:v>25.004239956808075</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>17.503615906471623</c:v>
+                  <c:v>25.223021193915315</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>18.457359170496797</c:v>
+                  <c:v>27.640013572112558</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>18.002603116316685</c:v>
+                  <c:v>30.063879485268746</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>16.514713229871131</c:v>
+                  <c:v>28.775097844075411</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>15.567960244529072</c:v>
+                  <c:v>26.111468485405261</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>15.77601432625921</c:v>
+                  <c:v>24.92129780747004</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>15.438464347496808</c:v>
+                  <c:v>25.464101191345307</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>14.406131079721504</c:v>
+                  <c:v>26.312313395875435</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>13.782771843962188</c:v>
+                  <c:v>26.332957967813719</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>13.528853259526024</c:v>
+                  <c:v>26.21882819906088</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>12.864630782610041</c:v>
+                  <c:v>27.204094420209973</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>11.083192203573425</c:v>
+                  <c:v>29.048091036442013</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>9.2984599875680285</c:v>
+                  <c:v>31.933832619228564</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>8.218919958787497</c:v>
+                  <c:v>34.241013457311958</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>7.278478241656595</c:v>
+                  <c:v>33.020182764177221</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>6.8044352322253561</c:v>
+                  <c:v>29.963946771445205</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>6.6248319072182094</c:v>
+                  <c:v>26.597036254384321</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>5.7145166817778925</c:v>
+                  <c:v>23.785543437351834</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>4.3504399596944889</c:v>
+                  <c:v>22.026787953504559</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>3.8385171781435643</c:v>
+                  <c:v>21.705194881799304</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>4.0207455708670192</c:v>
+                  <c:v>23.348596656358186</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>3.867371032103498</c:v>
+                  <c:v>26.853795631420908</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>3.2006009909606306</c:v>
+                  <c:v>31.28996217194986</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>2.7746580044204401</c:v>
+                  <c:v>33.625216036738877</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>3.2583076171087182</c:v>
+                  <c:v>32.866497463479945</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>4.5783740548481306</c:v>
+                  <c:v>30.936387921075962</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>5.4346220941054524</c:v>
+                  <c:v>29.034616844276158</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>4.8058108601597027</c:v>
+                  <c:v>26.754531221780532</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>3.5114193347537936</c:v>
+                  <c:v>24.296999146865293</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>2.7352155271226608</c:v>
+                  <c:v>24.122048194306988</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>2.0109273065388313</c:v>
+                  <c:v>26.825826061092577</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>1.3175512143940513</c:v>
+                  <c:v>27.202100763347012</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>1.2986338478235475</c:v>
+                  <c:v>25.023800121504163</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>1.8340376103249745</c:v>
+                  <c:v>23.214884805951481</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>2.5731387510862795</c:v>
+                  <c:v>22.041040919365496</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>3.3778889562390595</c:v>
+                  <c:v>21.123532678108724</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>3.095843538055556</c:v>
+                  <c:v>22.062077611235878</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>1.2285111635831276</c:v>
+                  <c:v>24.406470426089935</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>0.72942974920924453</c:v>
+                  <c:v>23.847303585760173</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>1.4939243383168492</c:v>
+                  <c:v>22.076176645814467</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>1.928749467288108</c:v>
+                  <c:v>23.752979257804611</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>1.7660477651312494</c:v>
+                  <c:v>25.605317096543171</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>1.9989618823779418</c:v>
+                  <c:v>25.477442010675599</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>2.1950682927797338</c:v>
+                  <c:v>23.910273072212</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>2.3691100306129118</c:v>
+                  <c:v>22.258032859461526</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>3.1940042290917123</c:v>
+                  <c:v>21.409006644897843</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>3.5418784371814813</c:v>
+                  <c:v>21.317682976689031</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>1.7432861033361045</c:v>
+                  <c:v>21.504299901135827</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>0.9069654350807892</c:v>
+                  <c:v>22.402928124145742</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>0.72778418666868472</c:v>
+                  <c:v>24.166582278299352</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>0.63932000119109711</c:v>
+                  <c:v>25.210125710532079</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>1.7583093039843898</c:v>
+                  <c:v>25.932052684964557</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>2.5097523676520561</c:v>
+                  <c:v>26.414894646268969</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>2.8390333239841317</c:v>
+                  <c:v>25.987131688190132</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>2.7911683950021535</c:v>
+                  <c:v>25.45910101675009</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>2.2613064203135398</c:v>
+                  <c:v>27.270379805048314</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>1.9665167292259718</c:v>
+                  <c:v>31.810458767795296</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>2.632380289992823</c:v>
+                  <c:v>35.016085411841274</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>3.5941975931914203</c:v>
+                  <c:v>32.023157504980254</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>4.0225673373477369</c:v>
+                  <c:v>26.2923758652896</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>3.6748208643638427</c:v>
+                  <c:v>25.915985856262267</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>2.6140061020588283</c:v>
+                  <c:v>28.133472510865108</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>1.5066154956514868</c:v>
+                  <c:v>26.398416087485074</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>1.2645839380957298</c:v>
+                  <c:v>22.6099984779115</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>1.3964059988031794</c:v>
+                  <c:v>21.594588524742136</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>1.5726281125668764</c:v>
+                  <c:v>23.662081366187007</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>1.8967217735264008</c:v>
+                  <c:v>25.139633117213098</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>2.2314525302574881</c:v>
+                  <c:v>25.24471545380122</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>2.2108647882933488</c:v>
+                  <c:v>27.062217657147297</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>1.7396916717110218</c:v>
+                  <c:v>30.098544616955245</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>1.5366990950784269</c:v>
+                  <c:v>30.949813034205903</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>1.7305951261369545</c:v>
+                  <c:v>27.603026467907704</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>1.6825705367909061</c:v>
+                  <c:v>22.364564124863154</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>1.2887068864348628</c:v>
+                  <c:v>18.475431321019627</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>1.3652467666217336</c:v>
+                  <c:v>16.24547155456419</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>1.575073207123761</c:v>
+                  <c:v>15.421636748521101</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>1.6115627665880032</c:v>
+                  <c:v>15.398672401653151</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>1.3705330650612857</c:v>
+                  <c:v>16.823992597453678</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>1.3961603246956682</c:v>
+                  <c:v>18.722380800519016</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>1.1862611540523189</c:v>
+                  <c:v>19.089164232044219</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>0.65290174328310202</c:v>
+                  <c:v>16.81675996027834</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>0.99504197366731351</c:v>
+                  <c:v>14.061701925695505</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>1.5876875475727894</c:v>
+                  <c:v>13.742820033017676</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>1.8656882997224504</c:v>
+                  <c:v>15.322003725356954</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>1.1412615847721006</c:v>
+                  <c:v>14.480840716669004</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>1.2859289907108651</c:v>
+                  <c:v>12.152992871538951</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>1.8269573539136075</c:v>
+                  <c:v>12.728842261936073</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>1.9967482441242783</c:v>
+                  <c:v>13.100382265983811</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>1.8355594324703013</c:v>
+                  <c:v>14.185447346406598</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>1.6315897959089958</c:v>
+                  <c:v>14.780341442711149</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>1.3756765531332826</c:v>
+                  <c:v>13.421431740046408</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>1.0241328204763545</c:v>
+                  <c:v>11.407155663355944</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>1.2485912942094632</c:v>
+                  <c:v>11.389776276535105</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>1.8408322716313124</c:v>
+                  <c:v>12.426197442438005</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>2.0300601713971176</c:v>
+                  <c:v>12.246818517240305</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>1.6827385313886882</c:v>
+                  <c:v>12.159810446592227</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>1.6308852617304579</c:v>
+                  <c:v>11.123299608611534</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>1.744769846305978</c:v>
+                  <c:v>10.000485403904078</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>1.7571474148723414</c:v>
+                  <c:v>9.5069841564021829</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>1.7728567167168769</c:v>
+                  <c:v>9.204339584718543</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>2.0793258592608428</c:v>
+                  <c:v>9.008289536094626</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>2.469938168355343</c:v>
+                  <c:v>8.9248533863686124</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>2.7627824558184955</c:v>
+                  <c:v>9.0150077784770275</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>2.4884927458951944</c:v>
+                  <c:v>9.5676746348864903</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>2.1322038169439783</c:v>
+                  <c:v>10.510594246086486</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>2.1088739506227734</c:v>
+                  <c:v>10.479478418111382</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>2.0140663396203551</c:v>
+                  <c:v>9.4634215225200418</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>2.2843178241464499</c:v>
+                  <c:v>9.265044916904781</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>1.7830894693850978</c:v>
+                  <c:v>10.181322823331461</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>1.2190288712359292</c:v>
+                  <c:v>10.589655464986693</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>1.1235599603770761</c:v>
+                  <c:v>9.7110987116473382</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>1.1716820538577106</c:v>
+                  <c:v>8.7386157494723253</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>1.4109851395196871</c:v>
+                  <c:v>8.907416698182276</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>1.6199877246804615</c:v>
+                  <c:v>10.496946258992711</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>1.6000799241991792</c:v>
+                  <c:v>11.988785498850893</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>1.6633236746186237</c:v>
+                  <c:v>12.980027845580334</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>13.382472629955565</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>13.1877745379962</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>13.362604077039659</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>13.280708447156124</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>12.593254484152851</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>12.571536528740756</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>13.165537219148787</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>13.671287272201615</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>14.132015944179066</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>14.649179310346277</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>15.387171745592774</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>15.635021421990501</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>14.070023183625663</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>11.62211460639905</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>10.623995312210669</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>10.95532643521609</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>11.22610374431234</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>11.33138775728726</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>11.599145711589429</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>12.068402682076956</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>11.818797449831159</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>10.449833031813764</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>8.4194359723043259</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>7.4075310766226039</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>7.6799423475702229</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>6.5366619478039603</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>4.656641153707989</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>3.3098345170565535</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>2.650375529180057</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.7495528391836381</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>1.6785213525364455</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>2.1166446903601628</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>3.1302763495921315</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>4.2169443479305615</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>3.8161195176442932</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>2.2318445774709148</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>2.0298562050094509</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>2.6827492845042249</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>2.8919980486420238</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>2.6803551330001394</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>2.2271599465158789</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>1.5931547223247537</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.96095219984121194</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.83763882926721567</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>1.3532989716594606</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2.4184314586432394</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>2.7942731324764041</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2.7262125354843376</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>3.1114805100440601</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>3.2953683607964237</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>2.3823876865036904</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>1.6393453298871674</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>1.7654371136090306</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>1.799822541115633</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>1.8139320095189755</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2.0517656503181971</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>2.3562445574029223</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2.6209983195405115</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>2.8446056128445019</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3.1406340395446284</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>3.5771634693577927</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3.8177317875727339</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>3.7715088644496171</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3.7327414595400565</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>4.0047734212322403</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>4.0584466085210655</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>4.0032871231930418</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3.7859835678727238</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>3.3853451725801955</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3.1749626671398534</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>3.4416822645245748</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>4.1313313229419801</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>4.5302413509064889</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D2E7-4379-991F-8390E9F2D54C}"/>
+              <c16:uniqueId val="{00000001-D2E7-4379-991F-8390E9F2D54C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10614,15 +11054,15 @@
             </c15:filteredScatterSeries>
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="1"/>
+                <c:idx val="2"/>
+                <c:order val="2"/>
                 <c:tx>
-                  <c:v>1.3</c:v>
+                  <c:v>1.1</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent2"/>
+                      <a:schemeClr val="accent3"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -10633,15 +11073,15 @@
                 </c:marker>
                 <c:xVal>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'LC1.3'!$D:$D</c15:sqref>
+                          <c15:sqref>'LC1.1'!$D:$D</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
                     <c:strCache>
-                      <c:ptCount val="313"/>
+                      <c:ptCount val="240"/>
                       <c:pt idx="0">
                         <c:v>distance</c:v>
                       </c:pt>
@@ -11361,235 +11801,16 @@
                       </c:pt>
                       <c:pt idx="239">
                         <c:v>239</c:v>
-                      </c:pt>
-                      <c:pt idx="240">
-                        <c:v>240</c:v>
-                      </c:pt>
-                      <c:pt idx="241">
-                        <c:v>241</c:v>
-                      </c:pt>
-                      <c:pt idx="242">
-                        <c:v>242</c:v>
-                      </c:pt>
-                      <c:pt idx="243">
-                        <c:v>243</c:v>
-                      </c:pt>
-                      <c:pt idx="244">
-                        <c:v>244</c:v>
-                      </c:pt>
-                      <c:pt idx="245">
-                        <c:v>245</c:v>
-                      </c:pt>
-                      <c:pt idx="246">
-                        <c:v>246</c:v>
-                      </c:pt>
-                      <c:pt idx="247">
-                        <c:v>247</c:v>
-                      </c:pt>
-                      <c:pt idx="248">
-                        <c:v>248</c:v>
-                      </c:pt>
-                      <c:pt idx="249">
-                        <c:v>249</c:v>
-                      </c:pt>
-                      <c:pt idx="250">
-                        <c:v>250</c:v>
-                      </c:pt>
-                      <c:pt idx="251">
-                        <c:v>251</c:v>
-                      </c:pt>
-                      <c:pt idx="252">
-                        <c:v>252</c:v>
-                      </c:pt>
-                      <c:pt idx="253">
-                        <c:v>253</c:v>
-                      </c:pt>
-                      <c:pt idx="254">
-                        <c:v>254</c:v>
-                      </c:pt>
-                      <c:pt idx="255">
-                        <c:v>255</c:v>
-                      </c:pt>
-                      <c:pt idx="256">
-                        <c:v>256</c:v>
-                      </c:pt>
-                      <c:pt idx="257">
-                        <c:v>257</c:v>
-                      </c:pt>
-                      <c:pt idx="258">
-                        <c:v>258</c:v>
-                      </c:pt>
-                      <c:pt idx="259">
-                        <c:v>259</c:v>
-                      </c:pt>
-                      <c:pt idx="260">
-                        <c:v>260</c:v>
-                      </c:pt>
-                      <c:pt idx="261">
-                        <c:v>261</c:v>
-                      </c:pt>
-                      <c:pt idx="262">
-                        <c:v>262</c:v>
-                      </c:pt>
-                      <c:pt idx="263">
-                        <c:v>263</c:v>
-                      </c:pt>
-                      <c:pt idx="264">
-                        <c:v>264</c:v>
-                      </c:pt>
-                      <c:pt idx="265">
-                        <c:v>265</c:v>
-                      </c:pt>
-                      <c:pt idx="266">
-                        <c:v>266</c:v>
-                      </c:pt>
-                      <c:pt idx="267">
-                        <c:v>267</c:v>
-                      </c:pt>
-                      <c:pt idx="268">
-                        <c:v>268</c:v>
-                      </c:pt>
-                      <c:pt idx="269">
-                        <c:v>269</c:v>
-                      </c:pt>
-                      <c:pt idx="270">
-                        <c:v>270</c:v>
-                      </c:pt>
-                      <c:pt idx="271">
-                        <c:v>271</c:v>
-                      </c:pt>
-                      <c:pt idx="272">
-                        <c:v>272</c:v>
-                      </c:pt>
-                      <c:pt idx="273">
-                        <c:v>273</c:v>
-                      </c:pt>
-                      <c:pt idx="274">
-                        <c:v>274</c:v>
-                      </c:pt>
-                      <c:pt idx="275">
-                        <c:v>275</c:v>
-                      </c:pt>
-                      <c:pt idx="276">
-                        <c:v>276</c:v>
-                      </c:pt>
-                      <c:pt idx="277">
-                        <c:v>277</c:v>
-                      </c:pt>
-                      <c:pt idx="278">
-                        <c:v>278</c:v>
-                      </c:pt>
-                      <c:pt idx="279">
-                        <c:v>279</c:v>
-                      </c:pt>
-                      <c:pt idx="280">
-                        <c:v>280</c:v>
-                      </c:pt>
-                      <c:pt idx="281">
-                        <c:v>281</c:v>
-                      </c:pt>
-                      <c:pt idx="282">
-                        <c:v>282</c:v>
-                      </c:pt>
-                      <c:pt idx="283">
-                        <c:v>283</c:v>
-                      </c:pt>
-                      <c:pt idx="284">
-                        <c:v>284</c:v>
-                      </c:pt>
-                      <c:pt idx="285">
-                        <c:v>285</c:v>
-                      </c:pt>
-                      <c:pt idx="286">
-                        <c:v>286</c:v>
-                      </c:pt>
-                      <c:pt idx="287">
-                        <c:v>287</c:v>
-                      </c:pt>
-                      <c:pt idx="288">
-                        <c:v>288</c:v>
-                      </c:pt>
-                      <c:pt idx="289">
-                        <c:v>289</c:v>
-                      </c:pt>
-                      <c:pt idx="290">
-                        <c:v>290</c:v>
-                      </c:pt>
-                      <c:pt idx="291">
-                        <c:v>291</c:v>
-                      </c:pt>
-                      <c:pt idx="292">
-                        <c:v>292</c:v>
-                      </c:pt>
-                      <c:pt idx="293">
-                        <c:v>293</c:v>
-                      </c:pt>
-                      <c:pt idx="294">
-                        <c:v>294</c:v>
-                      </c:pt>
-                      <c:pt idx="295">
-                        <c:v>295</c:v>
-                      </c:pt>
-                      <c:pt idx="296">
-                        <c:v>296</c:v>
-                      </c:pt>
-                      <c:pt idx="297">
-                        <c:v>297</c:v>
-                      </c:pt>
-                      <c:pt idx="298">
-                        <c:v>298</c:v>
-                      </c:pt>
-                      <c:pt idx="299">
-                        <c:v>299</c:v>
-                      </c:pt>
-                      <c:pt idx="300">
-                        <c:v>300</c:v>
-                      </c:pt>
-                      <c:pt idx="301">
-                        <c:v>301</c:v>
-                      </c:pt>
-                      <c:pt idx="302">
-                        <c:v>302</c:v>
-                      </c:pt>
-                      <c:pt idx="303">
-                        <c:v>303</c:v>
-                      </c:pt>
-                      <c:pt idx="304">
-                        <c:v>304</c:v>
-                      </c:pt>
-                      <c:pt idx="305">
-                        <c:v>305</c:v>
-                      </c:pt>
-                      <c:pt idx="306">
-                        <c:v>306</c:v>
-                      </c:pt>
-                      <c:pt idx="307">
-                        <c:v>307</c:v>
-                      </c:pt>
-                      <c:pt idx="308">
-                        <c:v>308</c:v>
-                      </c:pt>
-                      <c:pt idx="309">
-                        <c:v>309</c:v>
-                      </c:pt>
-                      <c:pt idx="310">
-                        <c:v>310</c:v>
-                      </c:pt>
-                      <c:pt idx="311">
-                        <c:v>311</c:v>
-                      </c:pt>
-                      <c:pt idx="312">
-                        <c:v>312</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>'LC1.3'!$E:$E</c15:sqref>
+                          <c15:sqref>'LC1.1'!$E:$E</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -11600,948 +11821,729 @@
                         <c:v>0</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>11.992254378216675</c:v>
+                        <c:v>21.442561960724198</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>28.532316372601947</c:v>
+                        <c:v>17.531415156878648</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>35.744977331701982</c:v>
+                        <c:v>15.199380734624004</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>33.211757451990323</c:v>
+                        <c:v>14.892835760743351</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>31.670330378078525</c:v>
+                        <c:v>15.155379228898219</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>40.868478104181072</c:v>
+                        <c:v>15.297198954624092</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>58.480704544253996</c:v>
+                        <c:v>15.84216427527914</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>69.492311054137687</c:v>
+                        <c:v>14.272135654990302</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>70.629328371386137</c:v>
+                        <c:v>7.639914944104925</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>67.160444185703028</c:v>
+                        <c:v>4.938682941348759</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>56.515032926989619</c:v>
+                        <c:v>21.869357396245569</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>41.999786530840097</c:v>
+                        <c:v>42.311924317473768</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>32.458323140090087</c:v>
+                        <c:v>52.126104138696775</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>31.035799247793406</c:v>
+                        <c:v>54.880390336523973</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>31.368534460888974</c:v>
+                        <c:v>53.520178151894775</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>31.23135138138457</c:v>
+                        <c:v>47.752133760299586</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>29.968338789598683</c:v>
+                        <c:v>39.61833915996742</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>33.078408675459194</c:v>
+                        <c:v>34.381000468361378</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>41.170815789988922</c:v>
+                        <c:v>33.830581783764828</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>44.054529231838998</c:v>
+                        <c:v>35.488357373470201</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>40.074370664885727</c:v>
+                        <c:v>35.642495354670352</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>33.066867843447184</c:v>
+                        <c:v>33.544283998559422</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>31.122581607843383</c:v>
+                        <c:v>32.287454985471257</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>34.288347555824174</c:v>
+                        <c:v>33.89387891139323</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>34.947644411298789</c:v>
+                        <c:v>35.932845344708284</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>33.057974294337271</c:v>
+                        <c:v>36.703810558166275</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>31.351760709139079</c:v>
+                        <c:v>35.831502510491703</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>30.430472413671694</c:v>
+                        <c:v>33.698785796352411</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>30.973820741088897</c:v>
+                        <c:v>33.209007279408965</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>31.777120509167744</c:v>
+                        <c:v>35.65789557801638</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>31.330187909376736</c:v>
+                        <c:v>38.879009473251209</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>30.047823979148454</c:v>
+                        <c:v>39.899550280230812</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>28.988155170730192</c:v>
+                        <c:v>37.544254955111398</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>30.339401178625302</c:v>
+                        <c:v>34.087900803063505</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>33.517340710840877</c:v>
+                        <c:v>32.922980105305612</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>34.61350038956396</c:v>
+                        <c:v>34.174989622425052</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>33.82517258680943</c:v>
+                        <c:v>36.283093434937179</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>33.83443735602598</c:v>
+                        <c:v>37.40037254804988</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>35.009359558625647</c:v>
+                        <c:v>35.456329398082858</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>34.89786977670618</c:v>
+                        <c:v>32.952171137844559</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>33.238614361414946</c:v>
+                        <c:v>32.782707341006116</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>32.133868142902898</c:v>
+                        <c:v>33.068320390740283</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>33.032019717956153</c:v>
+                        <c:v>32.837523549197428</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>33.66606459102772</c:v>
+                        <c:v>32.74569571391374</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>32.841375446368318</c:v>
+                        <c:v>32.514580346553714</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>31.592760596374244</c:v>
+                        <c:v>31.050133233940223</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>32.171750283964904</c:v>
+                        <c:v>29.363484363446965</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>34.859954380613488</c:v>
+                        <c:v>31.955613729320007</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>36.773096493601855</c:v>
+                        <c:v>38.518089221923177</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>36.169761602154537</c:v>
+                        <c:v>42.894093960282198</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>33.143116692872745</c:v>
+                        <c:v>41.709040788704996</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>29.884346849656652</c:v>
+                        <c:v>36.053424814762799</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>28.253293198391603</c:v>
+                        <c:v>31.763445763845532</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>28.988721436298313</c:v>
+                        <c:v>34.416088393153117</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>32.606235997315672</c:v>
+                        <c:v>39.089165318860594</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>36.236010498233156</c:v>
+                        <c:v>40.240796530783967</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>36.557541242311615</c:v>
+                        <c:v>39.864994600693969</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>34.179733346091481</c:v>
+                        <c:v>41.10204088015545</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>31.847080613061312</c:v>
+                        <c:v>45.151892072534075</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>29.783066624314998</c:v>
+                        <c:v>49.108801259423714</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>29.05138711545473</c:v>
+                        <c:v>47.926909174035814</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>30.080556053030829</c:v>
+                        <c:v>41.469467653907564</c:v>
                       </c:pt>
                       <c:pt idx="63">
-                        <c:v>31.472812954849701</c:v>
+                        <c:v>35.482576465661438</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>33.098256826761066</c:v>
+                        <c:v>33.601800563769963</c:v>
                       </c:pt>
                       <c:pt idx="65">
-                        <c:v>32.53009000810836</c:v>
+                        <c:v>34.989564178952939</c:v>
                       </c:pt>
                       <c:pt idx="66">
-                        <c:v>29.82910593963685</c:v>
+                        <c:v>37.125327957713623</c:v>
                       </c:pt>
                       <c:pt idx="67">
-                        <c:v>28.98925900131357</c:v>
+                        <c:v>36.744049276446461</c:v>
                       </c:pt>
                       <c:pt idx="68">
-                        <c:v>30.731667028476362</c:v>
+                        <c:v>36.710592846945325</c:v>
                       </c:pt>
                       <c:pt idx="69">
-                        <c:v>31.034091586378295</c:v>
+                        <c:v>39.17003970723097</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>30.409011193741645</c:v>
+                        <c:v>37.925522313675955</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>30.36639967935966</c:v>
+                        <c:v>33.395968682197079</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>29.527266610837579</c:v>
+                        <c:v>33.853339348180263</c:v>
                       </c:pt>
                       <c:pt idx="73">
-                        <c:v>30.197511045503031</c:v>
+                        <c:v>40.609848426694157</c:v>
                       </c:pt>
                       <c:pt idx="74">
-                        <c:v>32.45411119754948</c:v>
+                        <c:v>46.500375247075453</c:v>
                       </c:pt>
                       <c:pt idx="75">
-                        <c:v>36.957647862797444</c:v>
+                        <c:v>46.834290981481082</c:v>
                       </c:pt>
                       <c:pt idx="76">
-                        <c:v>41.840604194551929</c:v>
+                        <c:v>44.107838025185821</c:v>
                       </c:pt>
                       <c:pt idx="77">
-                        <c:v>42.07056257459368</c:v>
+                        <c:v>43.148237072500976</c:v>
                       </c:pt>
                       <c:pt idx="78">
-                        <c:v>35.905779553200162</c:v>
+                        <c:v>44.773400469824466</c:v>
                       </c:pt>
                       <c:pt idx="79">
-                        <c:v>29.295149434433075</c:v>
+                        <c:v>45.306106517290118</c:v>
                       </c:pt>
                       <c:pt idx="80">
-                        <c:v>28.91287077259436</c:v>
+                        <c:v>43.65072434104772</c:v>
                       </c:pt>
                       <c:pt idx="81">
-                        <c:v>29.526345626634463</c:v>
+                        <c:v>43.577893558483318</c:v>
                       </c:pt>
                       <c:pt idx="82">
-                        <c:v>28.853007425260721</c:v>
+                        <c:v>48.037819208558396</c:v>
                       </c:pt>
                       <c:pt idx="83">
-                        <c:v>29.472850839054495</c:v>
+                        <c:v>52.402318660987369</c:v>
                       </c:pt>
                       <c:pt idx="84">
-                        <c:v>30.759526926991825</c:v>
+                        <c:v>48.64408356619694</c:v>
                       </c:pt>
                       <c:pt idx="85">
-                        <c:v>30.996663207798751</c:v>
+                        <c:v>39.508283388595267</c:v>
                       </c:pt>
                       <c:pt idx="86">
-                        <c:v>31.068396972583223</c:v>
+                        <c:v>34.654061500194615</c:v>
                       </c:pt>
                       <c:pt idx="87">
-                        <c:v>30.960711234917206</c:v>
+                        <c:v>36.151848142283121</c:v>
                       </c:pt>
                       <c:pt idx="88">
-                        <c:v>29.830579344462208</c:v>
+                        <c:v>39.67589254983487</c:v>
                       </c:pt>
                       <c:pt idx="89">
-                        <c:v>27.848895258198514</c:v>
+                        <c:v>39.062403725018882</c:v>
                       </c:pt>
                       <c:pt idx="90">
-                        <c:v>26.483106038216025</c:v>
+                        <c:v>31.934307538382463</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>27.025359462590394</c:v>
+                        <c:v>24.917890666625386</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>27.348843418389198</c:v>
+                        <c:v>22.359864588529732</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>26.757174171959868</c:v>
+                        <c:v>21.217215605906823</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>26.571892069753513</c:v>
+                        <c:v>19.271571112451483</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>26.617078886715866</c:v>
+                        <c:v>19.17943727323868</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>26.671427749887307</c:v>
+                        <c:v>22.238913432478199</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>27.724206179687783</c:v>
+                        <c:v>24.880269844665943</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>28.845994762981626</c:v>
+                        <c:v>24.351441211754079</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>29.181089590527538</c:v>
+                        <c:v>21.718191344119781</c:v>
                       </c:pt>
                       <c:pt idx="100">
-                        <c:v>29.156943073991663</c:v>
+                        <c:v>19.84215984262795</c:v>
                       </c:pt>
                       <c:pt idx="101">
-                        <c:v>29.116688619896408</c:v>
+                        <c:v>20.841581037637262</c:v>
                       </c:pt>
                       <c:pt idx="102">
-                        <c:v>28.709225052439784</c:v>
+                        <c:v>22.810929543449895</c:v>
                       </c:pt>
                       <c:pt idx="103">
-                        <c:v>28.487282737792221</c:v>
+                        <c:v>23.391710485375391</c:v>
                       </c:pt>
                       <c:pt idx="104">
-                        <c:v>28.456186474815418</c:v>
+                        <c:v>23.345417414589125</c:v>
                       </c:pt>
                       <c:pt idx="105">
-                        <c:v>27.670574195041549</c:v>
+                        <c:v>23.107158615930139</c:v>
                       </c:pt>
                       <c:pt idx="106">
-                        <c:v>26.639707428316814</c:v>
+                        <c:v>22.314261079293232</c:v>
                       </c:pt>
                       <c:pt idx="107">
-                        <c:v>26.502491839761039</c:v>
+                        <c:v>21.891256236911264</c:v>
                       </c:pt>
                       <c:pt idx="108">
-                        <c:v>26.227809819041646</c:v>
+                        <c:v>22.494123934676846</c:v>
                       </c:pt>
                       <c:pt idx="109">
-                        <c:v>25.518800359277826</c:v>
+                        <c:v>22.668759240351374</c:v>
                       </c:pt>
                       <c:pt idx="110">
-                        <c:v>25.700152538727707</c:v>
+                        <c:v>21.616644218624977</c:v>
                       </c:pt>
                       <c:pt idx="111">
-                        <c:v>26.787753267505362</c:v>
+                        <c:v>20.177493596777957</c:v>
                       </c:pt>
                       <c:pt idx="112">
-                        <c:v>27.747357223874225</c:v>
+                        <c:v>19.022295716926983</c:v>
                       </c:pt>
                       <c:pt idx="113">
-                        <c:v>29.482719352750099</c:v>
+                        <c:v>18.498954924577717</c:v>
                       </c:pt>
                       <c:pt idx="114">
-                        <c:v>32.389272136354336</c:v>
+                        <c:v>18.177488778682047</c:v>
                       </c:pt>
                       <c:pt idx="115">
-                        <c:v>33.659161130264081</c:v>
+                        <c:v>17.631366621405871</c:v>
                       </c:pt>
                       <c:pt idx="116">
-                        <c:v>32.105993064676582</c:v>
+                        <c:v>17.975208206177939</c:v>
                       </c:pt>
                       <c:pt idx="117">
-                        <c:v>29.88288902723977</c:v>
+                        <c:v>18.708845815633964</c:v>
                       </c:pt>
                       <c:pt idx="118">
-                        <c:v>25.993545302214002</c:v>
+                        <c:v>18.674577862432667</c:v>
                       </c:pt>
                       <c:pt idx="119">
-                        <c:v>23.828449194099736</c:v>
+                        <c:v>17.59502741326601</c:v>
                       </c:pt>
                       <c:pt idx="120">
-                        <c:v>23.608307238414277</c:v>
+                        <c:v>15.199860334810319</c:v>
                       </c:pt>
                       <c:pt idx="121">
-                        <c:v>24.080582593222509</c:v>
+                        <c:v>13.393077551002914</c:v>
                       </c:pt>
                       <c:pt idx="122">
-                        <c:v>24.765648326041031</c:v>
+                        <c:v>13.63673006622431</c:v>
                       </c:pt>
                       <c:pt idx="123">
-                        <c:v>25.004239956808075</c:v>
+                        <c:v>15.447688469822033</c:v>
                       </c:pt>
                       <c:pt idx="124">
-                        <c:v>25.223021193915315</c:v>
+                        <c:v>17.503615906471623</c:v>
                       </c:pt>
                       <c:pt idx="125">
-                        <c:v>27.640013572112558</c:v>
+                        <c:v>18.457359170496797</c:v>
                       </c:pt>
                       <c:pt idx="126">
-                        <c:v>30.063879485268746</c:v>
+                        <c:v>18.002603116316685</c:v>
                       </c:pt>
                       <c:pt idx="127">
-                        <c:v>28.775097844075411</c:v>
+                        <c:v>16.514713229871131</c:v>
                       </c:pt>
                       <c:pt idx="128">
-                        <c:v>26.111468485405261</c:v>
+                        <c:v>15.567960244529072</c:v>
                       </c:pt>
                       <c:pt idx="129">
-                        <c:v>24.92129780747004</c:v>
+                        <c:v>15.77601432625921</c:v>
                       </c:pt>
                       <c:pt idx="130">
-                        <c:v>25.464101191345307</c:v>
+                        <c:v>15.438464347496808</c:v>
                       </c:pt>
                       <c:pt idx="131">
-                        <c:v>26.312313395875435</c:v>
+                        <c:v>14.406131079721504</c:v>
                       </c:pt>
                       <c:pt idx="132">
-                        <c:v>26.332957967813719</c:v>
+                        <c:v>13.782771843962188</c:v>
                       </c:pt>
                       <c:pt idx="133">
-                        <c:v>26.21882819906088</c:v>
+                        <c:v>13.528853259526024</c:v>
                       </c:pt>
                       <c:pt idx="134">
-                        <c:v>27.204094420209973</c:v>
+                        <c:v>12.864630782610041</c:v>
                       </c:pt>
                       <c:pt idx="135">
-                        <c:v>29.048091036442013</c:v>
+                        <c:v>11.083192203573425</c:v>
                       </c:pt>
                       <c:pt idx="136">
-                        <c:v>31.933832619228564</c:v>
+                        <c:v>9.2984599875680285</c:v>
                       </c:pt>
                       <c:pt idx="137">
-                        <c:v>34.241013457311958</c:v>
+                        <c:v>8.218919958787497</c:v>
                       </c:pt>
                       <c:pt idx="138">
-                        <c:v>33.020182764177221</c:v>
+                        <c:v>7.278478241656595</c:v>
                       </c:pt>
                       <c:pt idx="139">
-                        <c:v>29.963946771445205</c:v>
+                        <c:v>6.8044352322253561</c:v>
                       </c:pt>
                       <c:pt idx="140">
-                        <c:v>26.597036254384321</c:v>
+                        <c:v>6.6248319072182094</c:v>
                       </c:pt>
                       <c:pt idx="141">
-                        <c:v>23.785543437351834</c:v>
+                        <c:v>5.7145166817778925</c:v>
                       </c:pt>
                       <c:pt idx="142">
-                        <c:v>22.026787953504559</c:v>
+                        <c:v>4.3504399596944889</c:v>
                       </c:pt>
                       <c:pt idx="143">
-                        <c:v>21.705194881799304</c:v>
+                        <c:v>3.8385171781435643</c:v>
                       </c:pt>
                       <c:pt idx="144">
-                        <c:v>23.348596656358186</c:v>
+                        <c:v>4.0207455708670192</c:v>
                       </c:pt>
                       <c:pt idx="145">
-                        <c:v>26.853795631420908</c:v>
+                        <c:v>3.867371032103498</c:v>
                       </c:pt>
                       <c:pt idx="146">
-                        <c:v>31.28996217194986</c:v>
+                        <c:v>3.2006009909606306</c:v>
                       </c:pt>
                       <c:pt idx="147">
-                        <c:v>33.625216036738877</c:v>
+                        <c:v>2.7746580044204401</c:v>
                       </c:pt>
                       <c:pt idx="148">
-                        <c:v>32.866497463479945</c:v>
+                        <c:v>3.2583076171087182</c:v>
                       </c:pt>
                       <c:pt idx="149">
-                        <c:v>30.936387921075962</c:v>
+                        <c:v>4.5783740548481306</c:v>
                       </c:pt>
                       <c:pt idx="150">
-                        <c:v>29.034616844276158</c:v>
+                        <c:v>5.4346220941054524</c:v>
                       </c:pt>
                       <c:pt idx="151">
-                        <c:v>26.754531221780532</c:v>
+                        <c:v>4.8058108601597027</c:v>
                       </c:pt>
                       <c:pt idx="152">
-                        <c:v>24.296999146865293</c:v>
+                        <c:v>3.5114193347537936</c:v>
                       </c:pt>
                       <c:pt idx="153">
-                        <c:v>24.122048194306988</c:v>
+                        <c:v>2.7352155271226608</c:v>
                       </c:pt>
                       <c:pt idx="154">
-                        <c:v>26.825826061092577</c:v>
+                        <c:v>2.0109273065388313</c:v>
                       </c:pt>
                       <c:pt idx="155">
-                        <c:v>27.202100763347012</c:v>
+                        <c:v>1.3175512143940513</c:v>
                       </c:pt>
                       <c:pt idx="156">
-                        <c:v>25.023800121504163</c:v>
+                        <c:v>1.2986338478235475</c:v>
                       </c:pt>
                       <c:pt idx="157">
-                        <c:v>23.214884805951481</c:v>
+                        <c:v>1.8340376103249745</c:v>
                       </c:pt>
                       <c:pt idx="158">
-                        <c:v>22.041040919365496</c:v>
+                        <c:v>2.5731387510862795</c:v>
                       </c:pt>
                       <c:pt idx="159">
-                        <c:v>21.123532678108724</c:v>
+                        <c:v>3.3778889562390595</c:v>
                       </c:pt>
                       <c:pt idx="160">
-                        <c:v>22.062077611235878</c:v>
+                        <c:v>3.095843538055556</c:v>
                       </c:pt>
                       <c:pt idx="161">
-                        <c:v>24.406470426089935</c:v>
+                        <c:v>1.2285111635831276</c:v>
                       </c:pt>
                       <c:pt idx="162">
-                        <c:v>23.847303585760173</c:v>
+                        <c:v>0.72942974920924453</c:v>
                       </c:pt>
                       <c:pt idx="163">
-                        <c:v>22.076176645814467</c:v>
+                        <c:v>1.4939243383168492</c:v>
                       </c:pt>
                       <c:pt idx="164">
-                        <c:v>23.752979257804611</c:v>
+                        <c:v>1.928749467288108</c:v>
                       </c:pt>
                       <c:pt idx="165">
-                        <c:v>25.605317096543171</c:v>
+                        <c:v>1.7660477651312494</c:v>
                       </c:pt>
                       <c:pt idx="166">
-                        <c:v>25.477442010675599</c:v>
+                        <c:v>1.9989618823779418</c:v>
                       </c:pt>
                       <c:pt idx="167">
-                        <c:v>23.910273072212</c:v>
+                        <c:v>2.1950682927797338</c:v>
                       </c:pt>
                       <c:pt idx="168">
-                        <c:v>22.258032859461526</c:v>
+                        <c:v>2.3691100306129118</c:v>
                       </c:pt>
                       <c:pt idx="169">
-                        <c:v>21.409006644897843</c:v>
+                        <c:v>3.1940042290917123</c:v>
                       </c:pt>
                       <c:pt idx="170">
-                        <c:v>21.317682976689031</c:v>
+                        <c:v>3.5418784371814813</c:v>
                       </c:pt>
                       <c:pt idx="171">
-                        <c:v>21.504299901135827</c:v>
+                        <c:v>1.7432861033361045</c:v>
                       </c:pt>
                       <c:pt idx="172">
-                        <c:v>22.402928124145742</c:v>
+                        <c:v>0.9069654350807892</c:v>
                       </c:pt>
                       <c:pt idx="173">
-                        <c:v>24.166582278299352</c:v>
+                        <c:v>0.72778418666868472</c:v>
                       </c:pt>
                       <c:pt idx="174">
-                        <c:v>25.210125710532079</c:v>
+                        <c:v>0.63932000119109711</c:v>
                       </c:pt>
                       <c:pt idx="175">
-                        <c:v>25.932052684964557</c:v>
+                        <c:v>1.7583093039843898</c:v>
                       </c:pt>
                       <c:pt idx="176">
-                        <c:v>26.414894646268969</c:v>
+                        <c:v>2.5097523676520561</c:v>
                       </c:pt>
                       <c:pt idx="177">
-                        <c:v>25.987131688190132</c:v>
+                        <c:v>2.8390333239841317</c:v>
                       </c:pt>
                       <c:pt idx="178">
-                        <c:v>25.45910101675009</c:v>
+                        <c:v>2.7911683950021535</c:v>
                       </c:pt>
                       <c:pt idx="179">
-                        <c:v>27.270379805048314</c:v>
+                        <c:v>2.2613064203135398</c:v>
                       </c:pt>
                       <c:pt idx="180">
-                        <c:v>31.810458767795296</c:v>
+                        <c:v>1.9665167292259718</c:v>
                       </c:pt>
                       <c:pt idx="181">
-                        <c:v>35.016085411841274</c:v>
+                        <c:v>2.632380289992823</c:v>
                       </c:pt>
                       <c:pt idx="182">
-                        <c:v>32.023157504980254</c:v>
+                        <c:v>3.5941975931914203</c:v>
                       </c:pt>
                       <c:pt idx="183">
-                        <c:v>26.2923758652896</c:v>
+                        <c:v>4.0225673373477369</c:v>
                       </c:pt>
                       <c:pt idx="184">
-                        <c:v>25.915985856262267</c:v>
+                        <c:v>3.6748208643638427</c:v>
                       </c:pt>
                       <c:pt idx="185">
-                        <c:v>28.133472510865108</c:v>
+                        <c:v>2.6140061020588283</c:v>
                       </c:pt>
                       <c:pt idx="186">
-                        <c:v>26.398416087485074</c:v>
+                        <c:v>1.5066154956514868</c:v>
                       </c:pt>
                       <c:pt idx="187">
-                        <c:v>22.6099984779115</c:v>
+                        <c:v>1.2645839380957298</c:v>
                       </c:pt>
                       <c:pt idx="188">
-                        <c:v>21.594588524742136</c:v>
+                        <c:v>1.3964059988031794</c:v>
                       </c:pt>
                       <c:pt idx="189">
-                        <c:v>23.662081366187007</c:v>
+                        <c:v>1.5726281125668764</c:v>
                       </c:pt>
                       <c:pt idx="190">
-                        <c:v>25.139633117213098</c:v>
+                        <c:v>1.8967217735264008</c:v>
                       </c:pt>
                       <c:pt idx="191">
-                        <c:v>25.24471545380122</c:v>
+                        <c:v>2.2314525302574881</c:v>
                       </c:pt>
                       <c:pt idx="192">
-                        <c:v>27.062217657147297</c:v>
+                        <c:v>2.2108647882933488</c:v>
                       </c:pt>
                       <c:pt idx="193">
-                        <c:v>30.098544616955245</c:v>
+                        <c:v>1.7396916717110218</c:v>
                       </c:pt>
                       <c:pt idx="194">
-                        <c:v>30.949813034205903</c:v>
+                        <c:v>1.5366990950784269</c:v>
                       </c:pt>
                       <c:pt idx="195">
-                        <c:v>27.603026467907704</c:v>
+                        <c:v>1.7305951261369545</c:v>
                       </c:pt>
                       <c:pt idx="196">
-                        <c:v>22.364564124863154</c:v>
+                        <c:v>1.6825705367909061</c:v>
                       </c:pt>
                       <c:pt idx="197">
-                        <c:v>18.475431321019627</c:v>
+                        <c:v>1.2887068864348628</c:v>
                       </c:pt>
                       <c:pt idx="198">
-                        <c:v>16.24547155456419</c:v>
+                        <c:v>1.3652467666217336</c:v>
                       </c:pt>
                       <c:pt idx="199">
-                        <c:v>15.421636748521101</c:v>
+                        <c:v>1.575073207123761</c:v>
                       </c:pt>
                       <c:pt idx="200">
-                        <c:v>15.398672401653151</c:v>
+                        <c:v>1.6115627665880032</c:v>
                       </c:pt>
                       <c:pt idx="201">
-                        <c:v>16.823992597453678</c:v>
+                        <c:v>1.3705330650612857</c:v>
                       </c:pt>
                       <c:pt idx="202">
-                        <c:v>18.722380800519016</c:v>
+                        <c:v>1.3961603246956682</c:v>
                       </c:pt>
                       <c:pt idx="203">
-                        <c:v>19.089164232044219</c:v>
+                        <c:v>1.1862611540523189</c:v>
                       </c:pt>
                       <c:pt idx="204">
-                        <c:v>16.81675996027834</c:v>
+                        <c:v>0.65290174328310202</c:v>
                       </c:pt>
                       <c:pt idx="205">
-                        <c:v>14.061701925695505</c:v>
+                        <c:v>0.99504197366731351</c:v>
                       </c:pt>
                       <c:pt idx="206">
-                        <c:v>13.742820033017676</c:v>
+                        <c:v>1.5876875475727894</c:v>
                       </c:pt>
                       <c:pt idx="207">
-                        <c:v>15.322003725356954</c:v>
+                        <c:v>1.8656882997224504</c:v>
                       </c:pt>
                       <c:pt idx="208">
-                        <c:v>14.480840716669004</c:v>
+                        <c:v>1.1412615847721006</c:v>
                       </c:pt>
                       <c:pt idx="209">
-                        <c:v>12.152992871538951</c:v>
+                        <c:v>1.2859289907108651</c:v>
                       </c:pt>
                       <c:pt idx="210">
-                        <c:v>12.728842261936073</c:v>
+                        <c:v>1.8269573539136075</c:v>
                       </c:pt>
                       <c:pt idx="211">
-                        <c:v>13.100382265983811</c:v>
+                        <c:v>1.9967482441242783</c:v>
                       </c:pt>
                       <c:pt idx="212">
-                        <c:v>14.185447346406598</c:v>
+                        <c:v>1.8355594324703013</c:v>
                       </c:pt>
                       <c:pt idx="213">
-                        <c:v>14.780341442711149</c:v>
+                        <c:v>1.6315897959089958</c:v>
                       </c:pt>
                       <c:pt idx="214">
-                        <c:v>13.421431740046408</c:v>
+                        <c:v>1.3756765531332826</c:v>
                       </c:pt>
                       <c:pt idx="215">
-                        <c:v>11.407155663355944</c:v>
+                        <c:v>1.0241328204763545</c:v>
                       </c:pt>
                       <c:pt idx="216">
-                        <c:v>11.389776276535105</c:v>
+                        <c:v>1.2485912942094632</c:v>
                       </c:pt>
                       <c:pt idx="217">
-                        <c:v>12.426197442438005</c:v>
+                        <c:v>1.8408322716313124</c:v>
                       </c:pt>
                       <c:pt idx="218">
-                        <c:v>12.246818517240305</c:v>
+                        <c:v>2.0300601713971176</c:v>
                       </c:pt>
                       <c:pt idx="219">
-                        <c:v>12.159810446592227</c:v>
+                        <c:v>1.6827385313886882</c:v>
                       </c:pt>
                       <c:pt idx="220">
-                        <c:v>11.123299608611534</c:v>
+                        <c:v>1.6308852617304579</c:v>
                       </c:pt>
                       <c:pt idx="221">
-                        <c:v>10.000485403904078</c:v>
+                        <c:v>1.744769846305978</c:v>
                       </c:pt>
                       <c:pt idx="222">
-                        <c:v>9.5069841564021829</c:v>
+                        <c:v>1.7571474148723414</c:v>
                       </c:pt>
                       <c:pt idx="223">
-                        <c:v>9.204339584718543</c:v>
+                        <c:v>1.7728567167168769</c:v>
                       </c:pt>
                       <c:pt idx="224">
-                        <c:v>9.008289536094626</c:v>
+                        <c:v>2.0793258592608428</c:v>
                       </c:pt>
                       <c:pt idx="225">
-                        <c:v>8.9248533863686124</c:v>
+                        <c:v>2.469938168355343</c:v>
                       </c:pt>
                       <c:pt idx="226">
-                        <c:v>9.0150077784770275</c:v>
+                        <c:v>2.7627824558184955</c:v>
                       </c:pt>
                       <c:pt idx="227">
-                        <c:v>9.5676746348864903</c:v>
+                        <c:v>2.4884927458951944</c:v>
                       </c:pt>
                       <c:pt idx="228">
-                        <c:v>10.510594246086486</c:v>
+                        <c:v>2.1322038169439783</c:v>
                       </c:pt>
                       <c:pt idx="229">
-                        <c:v>10.479478418111382</c:v>
+                        <c:v>2.1088739506227734</c:v>
                       </c:pt>
                       <c:pt idx="230">
-                        <c:v>9.4634215225200418</c:v>
+                        <c:v>2.0140663396203551</c:v>
                       </c:pt>
                       <c:pt idx="231">
-                        <c:v>9.265044916904781</c:v>
+                        <c:v>2.2843178241464499</c:v>
                       </c:pt>
                       <c:pt idx="232">
-                        <c:v>10.181322823331461</c:v>
+                        <c:v>1.7830894693850978</c:v>
                       </c:pt>
                       <c:pt idx="233">
-                        <c:v>10.589655464986693</c:v>
+                        <c:v>1.2190288712359292</c:v>
                       </c:pt>
                       <c:pt idx="234">
-                        <c:v>9.7110987116473382</c:v>
+                        <c:v>1.1235599603770761</c:v>
                       </c:pt>
                       <c:pt idx="235">
-                        <c:v>8.7386157494723253</c:v>
+                        <c:v>1.1716820538577106</c:v>
                       </c:pt>
                       <c:pt idx="236">
-                        <c:v>8.907416698182276</c:v>
+                        <c:v>1.4109851395196871</c:v>
                       </c:pt>
                       <c:pt idx="237">
-                        <c:v>10.496946258992711</c:v>
+                        <c:v>1.6199877246804615</c:v>
                       </c:pt>
                       <c:pt idx="238">
-                        <c:v>11.988785498850893</c:v>
+                        <c:v>1.6000799241991792</c:v>
                       </c:pt>
                       <c:pt idx="239">
-                        <c:v>12.980027845580334</c:v>
-                      </c:pt>
-                      <c:pt idx="240">
-                        <c:v>13.382472629955565</c:v>
-                      </c:pt>
-                      <c:pt idx="241">
-                        <c:v>13.1877745379962</c:v>
-                      </c:pt>
-                      <c:pt idx="242">
-                        <c:v>13.362604077039659</c:v>
-                      </c:pt>
-                      <c:pt idx="243">
-                        <c:v>13.280708447156124</c:v>
-                      </c:pt>
-                      <c:pt idx="244">
-                        <c:v>12.593254484152851</c:v>
-                      </c:pt>
-                      <c:pt idx="245">
-                        <c:v>12.571536528740756</c:v>
-                      </c:pt>
-                      <c:pt idx="246">
-                        <c:v>13.165537219148787</c:v>
-                      </c:pt>
-                      <c:pt idx="247">
-                        <c:v>13.671287272201615</c:v>
-                      </c:pt>
-                      <c:pt idx="248">
-                        <c:v>14.132015944179066</c:v>
-                      </c:pt>
-                      <c:pt idx="249">
-                        <c:v>14.649179310346277</c:v>
-                      </c:pt>
-                      <c:pt idx="250">
-                        <c:v>15.387171745592774</c:v>
-                      </c:pt>
-                      <c:pt idx="251">
-                        <c:v>15.635021421990501</c:v>
-                      </c:pt>
-                      <c:pt idx="252">
-                        <c:v>14.070023183625663</c:v>
-                      </c:pt>
-                      <c:pt idx="253">
-                        <c:v>11.62211460639905</c:v>
-                      </c:pt>
-                      <c:pt idx="254">
-                        <c:v>10.623995312210669</c:v>
-                      </c:pt>
-                      <c:pt idx="255">
-                        <c:v>10.95532643521609</c:v>
-                      </c:pt>
-                      <c:pt idx="256">
-                        <c:v>11.22610374431234</c:v>
-                      </c:pt>
-                      <c:pt idx="257">
-                        <c:v>11.33138775728726</c:v>
-                      </c:pt>
-                      <c:pt idx="258">
-                        <c:v>11.599145711589429</c:v>
-                      </c:pt>
-                      <c:pt idx="259">
-                        <c:v>12.068402682076956</c:v>
-                      </c:pt>
-                      <c:pt idx="260">
-                        <c:v>11.818797449831159</c:v>
-                      </c:pt>
-                      <c:pt idx="261">
-                        <c:v>10.449833031813764</c:v>
-                      </c:pt>
-                      <c:pt idx="262">
-                        <c:v>8.4194359723043259</c:v>
-                      </c:pt>
-                      <c:pt idx="263">
-                        <c:v>7.4075310766226039</c:v>
-                      </c:pt>
-                      <c:pt idx="264">
-                        <c:v>7.6799423475702229</c:v>
-                      </c:pt>
-                      <c:pt idx="265">
-                        <c:v>6.5366619478039603</c:v>
-                      </c:pt>
-                      <c:pt idx="266">
-                        <c:v>4.656641153707989</c:v>
-                      </c:pt>
-                      <c:pt idx="267">
-                        <c:v>3.3098345170565535</c:v>
-                      </c:pt>
-                      <c:pt idx="268">
-                        <c:v>2.650375529180057</c:v>
-                      </c:pt>
-                      <c:pt idx="269">
-                        <c:v>1.7495528391836381</c:v>
-                      </c:pt>
-                      <c:pt idx="270">
-                        <c:v>1.6785213525364455</c:v>
-                      </c:pt>
-                      <c:pt idx="271">
-                        <c:v>2.1166446903601628</c:v>
-                      </c:pt>
-                      <c:pt idx="272">
-                        <c:v>3.1302763495921315</c:v>
-                      </c:pt>
-                      <c:pt idx="273">
-                        <c:v>4.2169443479305615</c:v>
-                      </c:pt>
-                      <c:pt idx="274">
-                        <c:v>3.8161195176442932</c:v>
-                      </c:pt>
-                      <c:pt idx="275">
-                        <c:v>2.2318445774709148</c:v>
-                      </c:pt>
-                      <c:pt idx="276">
-                        <c:v>2.0298562050094509</c:v>
-                      </c:pt>
-                      <c:pt idx="277">
-                        <c:v>2.6827492845042249</c:v>
-                      </c:pt>
-                      <c:pt idx="278">
-                        <c:v>2.8919980486420238</c:v>
-                      </c:pt>
-                      <c:pt idx="279">
-                        <c:v>2.6803551330001394</c:v>
-                      </c:pt>
-                      <c:pt idx="280">
-                        <c:v>2.2271599465158789</c:v>
-                      </c:pt>
-                      <c:pt idx="281">
-                        <c:v>1.5931547223247537</c:v>
-                      </c:pt>
-                      <c:pt idx="282">
-                        <c:v>0.96095219984121194</c:v>
-                      </c:pt>
-                      <c:pt idx="283">
-                        <c:v>0.83763882926721567</c:v>
-                      </c:pt>
-                      <c:pt idx="284">
-                        <c:v>1.3532989716594606</c:v>
-                      </c:pt>
-                      <c:pt idx="285">
-                        <c:v>2.4184314586432394</c:v>
-                      </c:pt>
-                      <c:pt idx="286">
-                        <c:v>2.7942731324764041</c:v>
-                      </c:pt>
-                      <c:pt idx="287">
-                        <c:v>2.7262125354843376</c:v>
-                      </c:pt>
-                      <c:pt idx="288">
-                        <c:v>3.1114805100440601</c:v>
-                      </c:pt>
-                      <c:pt idx="289">
-                        <c:v>3.2953683607964237</c:v>
-                      </c:pt>
-                      <c:pt idx="290">
-                        <c:v>2.3823876865036904</c:v>
-                      </c:pt>
-                      <c:pt idx="291">
-                        <c:v>1.6393453298871674</c:v>
-                      </c:pt>
-                      <c:pt idx="292">
-                        <c:v>1.7654371136090306</c:v>
-                      </c:pt>
-                      <c:pt idx="293">
-                        <c:v>1.799822541115633</c:v>
-                      </c:pt>
-                      <c:pt idx="294">
-                        <c:v>1.8139320095189755</c:v>
-                      </c:pt>
-                      <c:pt idx="295">
-                        <c:v>2.0517656503181971</c:v>
-                      </c:pt>
-                      <c:pt idx="296">
-                        <c:v>2.3562445574029223</c:v>
-                      </c:pt>
-                      <c:pt idx="297">
-                        <c:v>2.6209983195405115</c:v>
-                      </c:pt>
-                      <c:pt idx="298">
-                        <c:v>2.8446056128445019</c:v>
-                      </c:pt>
-                      <c:pt idx="299">
-                        <c:v>3.1406340395446284</c:v>
-                      </c:pt>
-                      <c:pt idx="300">
-                        <c:v>3.5771634693577927</c:v>
-                      </c:pt>
-                      <c:pt idx="301">
-                        <c:v>3.8177317875727339</c:v>
-                      </c:pt>
-                      <c:pt idx="302">
-                        <c:v>3.7715088644496171</c:v>
-                      </c:pt>
-                      <c:pt idx="303">
-                        <c:v>3.7327414595400565</c:v>
-                      </c:pt>
-                      <c:pt idx="304">
-                        <c:v>4.0047734212322403</c:v>
-                      </c:pt>
-                      <c:pt idx="305">
-                        <c:v>4.0584466085210655</c:v>
-                      </c:pt>
-                      <c:pt idx="306">
-                        <c:v>4.0032871231930418</c:v>
-                      </c:pt>
-                      <c:pt idx="307">
-                        <c:v>3.7859835678727238</c:v>
-                      </c:pt>
-                      <c:pt idx="308">
-                        <c:v>3.3853451725801955</c:v>
-                      </c:pt>
-                      <c:pt idx="309">
-                        <c:v>3.1749626671398534</c:v>
-                      </c:pt>
-                      <c:pt idx="310">
-                        <c:v>3.4416822645245748</c:v>
-                      </c:pt>
-                      <c:pt idx="311">
-                        <c:v>4.1313313229419801</c:v>
-                      </c:pt>
-                      <c:pt idx="312">
-                        <c:v>4.5302413509064889</c:v>
+                        <c:v>1.6633236746186237</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-D2E7-4379-991F-8390E9F2D54C}"/>
+                    <c16:uniqueId val="{00000002-D2E7-4379-991F-8390E9F2D54C}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -18740,8 +18742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1654F702-A7AE-43D4-A8C4-1CE04BECDAB2}">
   <dimension ref="C22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18774,7 +18776,7 @@
   </sheetPr>
   <dimension ref="A1:G240"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
